--- a/Schedules/Team 5 - Sprint 1 Plan.xlsx
+++ b/Schedules/Team 5 - Sprint 1 Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chad\Desktop\Northeastern University\CS5500\team-5-F19-local\team-5-F19\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4815F74B-1379-4BE6-A04D-97819ADF2C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC988C9-5262-41AA-B4E8-0B8FE1E93334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="705" windowWidth="11970" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Timeline" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,12 +185,6 @@
         <bgColor theme="7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -204,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -230,7 +224,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,7 +448,9 @@
   </sheetPr>
   <dimension ref="A1:V1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -515,7 +510,7 @@
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -526,7 +521,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -537,7 +532,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -548,7 +543,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -559,19 +554,19 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -582,82 +577,82 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="11"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="11"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="11"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="11"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -666,9 +661,9 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
@@ -677,4963 +672,4963 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="15"/>
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="14"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="14"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="14"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="15"/>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="15"/>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="15"/>
+    <row r="33" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
+    <row r="34" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
+    <row r="35" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
+    <row r="36" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
+    <row r="37" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
+    <row r="38" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
+    <row r="39" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="15"/>
+    <row r="40" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="15"/>
+    <row r="41" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="15"/>
+    <row r="42" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="14"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="15"/>
+    <row r="43" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="14"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="15"/>
+    <row r="44" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="14"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
+    <row r="45" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="14"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="15"/>
+    <row r="46" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B46" s="14"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
+    <row r="47" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B47" s="14"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="15"/>
+    <row r="48" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="15"/>
+    <row r="49" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B49" s="14"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="15"/>
+    <row r="50" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="14"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="15"/>
+    <row r="51" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="15"/>
+    <row r="52" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="14"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="15"/>
+    <row r="53" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="14"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="15"/>
+    <row r="54" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="14"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="15"/>
+    <row r="55" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="14"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
+    <row r="56" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="14"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
+    <row r="57" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="14"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="15"/>
+    <row r="58" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B58" s="14"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="15"/>
+    <row r="59" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="14"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="15"/>
+    <row r="60" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B60" s="14"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="15"/>
+    <row r="61" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="14"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="15"/>
+    <row r="62" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="14"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="15"/>
+    <row r="63" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="14"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="15"/>
+    <row r="64" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="14"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="15"/>
+    <row r="65" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="14"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="15"/>
+    <row r="66" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="14"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="15"/>
+    <row r="67" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="14"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="15"/>
+    <row r="68" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="14"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="15"/>
+    <row r="69" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="14"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="15"/>
+    <row r="70" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="14"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="15"/>
+    <row r="71" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="14"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="15"/>
+    <row r="72" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="14"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="15"/>
+    <row r="73" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="14"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="15"/>
+    <row r="74" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="14"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="15"/>
+    <row r="75" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="14"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="15"/>
+    <row r="76" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="14"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="15"/>
+    <row r="77" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="14"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="15"/>
+    <row r="78" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="14"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="15"/>
+    <row r="79" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="14"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="15"/>
+    <row r="80" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="14"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="15"/>
+    <row r="81" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="14"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="15"/>
+    <row r="82" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="14"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="15"/>
+    <row r="83" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="14"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="15"/>
+    <row r="84" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="14"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="15"/>
+    <row r="85" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="14"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="15"/>
+    <row r="86" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B86" s="14"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="15"/>
+    <row r="87" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="14"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="15"/>
+    <row r="88" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="14"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="15"/>
+    <row r="89" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B89" s="14"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="15"/>
+    <row r="90" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B90" s="14"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="15"/>
+    <row r="91" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B91" s="14"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="15"/>
+    <row r="92" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B92" s="14"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="15"/>
+    <row r="93" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B93" s="14"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="15"/>
+    <row r="94" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B94" s="14"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="15"/>
+    <row r="95" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B95" s="14"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="15"/>
+    <row r="96" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B96" s="14"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="15"/>
+    <row r="97" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B97" s="14"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="15"/>
+    <row r="98" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B98" s="14"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="15"/>
+    <row r="99" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B99" s="14"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="15"/>
+    <row r="100" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B100" s="14"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="15"/>
+    <row r="101" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B101" s="14"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="15"/>
+    <row r="102" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B102" s="14"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="15"/>
+    <row r="103" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B103" s="14"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B104" s="15"/>
+    <row r="104" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B104" s="14"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B105" s="15"/>
+    <row r="105" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B105" s="14"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="15"/>
+    <row r="106" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B106" s="14"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" s="15"/>
+    <row r="107" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B107" s="14"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B108" s="15"/>
+    <row r="108" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B108" s="14"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="15"/>
+    <row r="109" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B109" s="14"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="15"/>
+    <row r="110" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B110" s="14"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="15"/>
+    <row r="111" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="14"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="15"/>
+    <row r="112" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B112" s="14"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="15"/>
+    <row r="113" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B113" s="14"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="15"/>
+    <row r="114" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B114" s="14"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="15"/>
+    <row r="115" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B115" s="14"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="15"/>
+    <row r="116" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B116" s="14"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="15"/>
+    <row r="117" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B117" s="14"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="15"/>
+    <row r="118" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B118" s="14"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="15"/>
+    <row r="119" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B119" s="14"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="15"/>
+    <row r="120" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B120" s="14"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="15"/>
+    <row r="121" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B121" s="14"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="15"/>
+    <row r="122" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B122" s="14"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="15"/>
+    <row r="123" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B123" s="14"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="15"/>
+    <row r="124" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B124" s="14"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="15"/>
+    <row r="125" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B125" s="14"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="15"/>
+    <row r="126" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B126" s="14"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="15"/>
+    <row r="127" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B127" s="14"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="15"/>
+    <row r="128" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B128" s="14"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="15"/>
+    <row r="129" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B129" s="14"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="15"/>
+    <row r="130" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B130" s="14"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="15"/>
+    <row r="131" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B131" s="14"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="15"/>
+    <row r="132" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B132" s="14"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="15"/>
+    <row r="133" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B133" s="14"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="15"/>
+    <row r="134" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B134" s="14"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="15"/>
+    <row r="135" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B135" s="14"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="15"/>
+    <row r="136" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B136" s="14"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="15"/>
+    <row r="137" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B137" s="14"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="15"/>
+    <row r="138" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B138" s="14"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="15"/>
+    <row r="139" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B139" s="14"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="15"/>
+    <row r="140" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B140" s="14"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="15"/>
+    <row r="141" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B141" s="14"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B142" s="15"/>
+    <row r="142" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B142" s="14"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="15"/>
+    <row r="143" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B143" s="14"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="15"/>
+    <row r="144" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B144" s="14"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" s="15"/>
+    <row r="145" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B145" s="14"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" s="15"/>
+    <row r="146" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B146" s="14"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" s="15"/>
+    <row r="147" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B147" s="14"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" s="15"/>
+    <row r="148" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B148" s="14"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" s="15"/>
+    <row r="149" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B149" s="14"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" s="15"/>
+    <row r="150" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B150" s="14"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" s="15"/>
+    <row r="151" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B151" s="14"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" s="15"/>
+    <row r="152" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B152" s="14"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="15"/>
+    <row r="153" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B153" s="14"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B154" s="15"/>
+    <row r="154" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B154" s="14"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B155" s="15"/>
+    <row r="155" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B155" s="14"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B156" s="15"/>
+    <row r="156" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B156" s="14"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B157" s="15"/>
+    <row r="157" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B157" s="14"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B158" s="15"/>
+    <row r="158" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B158" s="14"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B159" s="15"/>
+    <row r="159" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B159" s="14"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B160" s="15"/>
+    <row r="160" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B160" s="14"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B161" s="15"/>
+    <row r="161" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B161" s="14"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B162" s="15"/>
+    <row r="162" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B162" s="14"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B163" s="15"/>
+    <row r="163" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B163" s="14"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B164" s="15"/>
+    <row r="164" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B164" s="14"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B165" s="15"/>
+    <row r="165" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B165" s="14"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B166" s="15"/>
+    <row r="166" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B166" s="14"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B167" s="15"/>
+    <row r="167" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B167" s="14"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B168" s="15"/>
+    <row r="168" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B168" s="14"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B169" s="15"/>
+    <row r="169" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B169" s="14"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B170" s="15"/>
+    <row r="170" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B170" s="14"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B171" s="15"/>
+    <row r="171" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B171" s="14"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B172" s="15"/>
+    <row r="172" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B172" s="14"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B173" s="15"/>
+    <row r="173" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B173" s="14"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B174" s="15"/>
+    <row r="174" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B174" s="14"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B175" s="15"/>
+    <row r="175" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B175" s="14"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B176" s="15"/>
+    <row r="176" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B176" s="14"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B177" s="15"/>
+    <row r="177" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B177" s="14"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B178" s="15"/>
+    <row r="178" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B178" s="14"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B179" s="15"/>
+    <row r="179" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B179" s="14"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B180" s="15"/>
+    <row r="180" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B180" s="14"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B181" s="15"/>
+    <row r="181" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B181" s="14"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B182" s="15"/>
+    <row r="182" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B182" s="14"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B183" s="15"/>
+    <row r="183" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B183" s="14"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B184" s="15"/>
+    <row r="184" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B184" s="14"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B185" s="15"/>
+    <row r="185" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B185" s="14"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B186" s="15"/>
+    <row r="186" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B186" s="14"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B187" s="15"/>
+    <row r="187" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B187" s="14"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B188" s="15"/>
+    <row r="188" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B188" s="14"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B189" s="15"/>
+    <row r="189" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B189" s="14"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B190" s="15"/>
+    <row r="190" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B190" s="14"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B191" s="15"/>
+    <row r="191" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B191" s="14"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B192" s="15"/>
+    <row r="192" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B192" s="14"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B193" s="15"/>
+    <row r="193" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B193" s="14"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B194" s="15"/>
+    <row r="194" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B194" s="14"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B195" s="15"/>
+    <row r="195" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B195" s="14"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B196" s="15"/>
+    <row r="196" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B196" s="14"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B197" s="15"/>
+    <row r="197" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B197" s="14"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B198" s="15"/>
+    <row r="198" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B198" s="14"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B199" s="15"/>
+    <row r="199" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B199" s="14"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B200" s="15"/>
+    <row r="200" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B200" s="14"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B201" s="15"/>
+    <row r="201" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B201" s="14"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B202" s="15"/>
+    <row r="202" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B202" s="14"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B203" s="15"/>
+    <row r="203" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B203" s="14"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B204" s="15"/>
+    <row r="204" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B204" s="14"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B205" s="15"/>
+    <row r="205" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B205" s="14"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B206" s="15"/>
+    <row r="206" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B206" s="14"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B207" s="15"/>
+    <row r="207" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B207" s="14"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B208" s="15"/>
+    <row r="208" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B208" s="14"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B209" s="15"/>
+    <row r="209" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B209" s="14"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B210" s="15"/>
+    <row r="210" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B210" s="14"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B211" s="15"/>
+    <row r="211" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B211" s="14"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B212" s="15"/>
+    <row r="212" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B212" s="14"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B213" s="15"/>
+    <row r="213" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B213" s="14"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B214" s="15"/>
+    <row r="214" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B214" s="14"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B215" s="15"/>
+    <row r="215" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B215" s="14"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B216" s="15"/>
+    <row r="216" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B216" s="14"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B217" s="15"/>
+    <row r="217" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B217" s="14"/>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B218" s="15"/>
+    <row r="218" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B218" s="14"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B219" s="15"/>
+    <row r="219" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B219" s="14"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B220" s="15"/>
+    <row r="220" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B220" s="14"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B221" s="15"/>
+    <row r="221" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B221" s="14"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B222" s="15"/>
+    <row r="222" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B222" s="14"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B223" s="15"/>
+    <row r="223" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B223" s="14"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B224" s="15"/>
+    <row r="224" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B224" s="14"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B225" s="15"/>
+    <row r="225" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B225" s="14"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B226" s="15"/>
+    <row r="226" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B226" s="14"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B227" s="15"/>
+    <row r="227" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B227" s="14"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B228" s="15"/>
+    <row r="228" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B228" s="14"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B229" s="15"/>
+    <row r="229" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B229" s="14"/>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B230" s="15"/>
+    <row r="230" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B230" s="14"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B231" s="15"/>
+    <row r="231" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B231" s="14"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B232" s="15"/>
+    <row r="232" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B232" s="14"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B233" s="15"/>
+    <row r="233" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B233" s="14"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B234" s="15"/>
+    <row r="234" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B234" s="14"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B235" s="15"/>
+    <row r="235" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B235" s="14"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B236" s="15"/>
+    <row r="236" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B236" s="14"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B237" s="15"/>
+    <row r="237" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B237" s="14"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B238" s="15"/>
+    <row r="238" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B238" s="14"/>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B239" s="15"/>
+    <row r="239" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B239" s="14"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B240" s="15"/>
+    <row r="240" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B240" s="14"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B241" s="15"/>
+    <row r="241" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B241" s="14"/>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B242" s="15"/>
+    <row r="242" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B242" s="14"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B243" s="15"/>
+    <row r="243" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B243" s="14"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B244" s="15"/>
+    <row r="244" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B244" s="14"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B245" s="15"/>
+    <row r="245" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B245" s="14"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B246" s="15"/>
+    <row r="246" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B246" s="14"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B247" s="15"/>
+    <row r="247" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B247" s="14"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B248" s="15"/>
+    <row r="248" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B248" s="14"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B249" s="15"/>
+    <row r="249" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B249" s="14"/>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B250" s="15"/>
+    <row r="250" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B250" s="14"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B251" s="15"/>
+    <row r="251" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B251" s="14"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B252" s="15"/>
+    <row r="252" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B252" s="14"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B253" s="15"/>
+    <row r="253" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B253" s="14"/>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B254" s="15"/>
+    <row r="254" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B254" s="14"/>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B255" s="15"/>
+    <row r="255" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B255" s="14"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B256" s="15"/>
+    <row r="256" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B256" s="14"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B257" s="15"/>
+    <row r="257" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B257" s="14"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B258" s="15"/>
+    <row r="258" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B258" s="14"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B259" s="15"/>
+    <row r="259" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B259" s="14"/>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B260" s="15"/>
+    <row r="260" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B260" s="14"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B261" s="15"/>
+    <row r="261" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B261" s="14"/>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B262" s="15"/>
+    <row r="262" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B262" s="14"/>
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B263" s="15"/>
+    <row r="263" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B263" s="14"/>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B264" s="15"/>
+    <row r="264" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B264" s="14"/>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B265" s="15"/>
+    <row r="265" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B265" s="14"/>
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B266" s="15"/>
+    <row r="266" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B266" s="14"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B267" s="15"/>
+    <row r="267" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B267" s="14"/>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B268" s="15"/>
+    <row r="268" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B268" s="14"/>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B269" s="15"/>
+    <row r="269" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B269" s="14"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B270" s="15"/>
+    <row r="270" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B270" s="14"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B271" s="15"/>
+    <row r="271" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B271" s="14"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B272" s="15"/>
+    <row r="272" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B272" s="14"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B273" s="15"/>
+    <row r="273" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B273" s="14"/>
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B274" s="15"/>
+    <row r="274" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B274" s="14"/>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B275" s="15"/>
+    <row r="275" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B275" s="14"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B276" s="15"/>
+    <row r="276" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B276" s="14"/>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B277" s="15"/>
+    <row r="277" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B277" s="14"/>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B278" s="15"/>
+    <row r="278" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B278" s="14"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B279" s="15"/>
+    <row r="279" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B279" s="14"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B280" s="15"/>
+    <row r="280" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B280" s="14"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B281" s="15"/>
+    <row r="281" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B281" s="14"/>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B282" s="15"/>
+    <row r="282" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B282" s="14"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B283" s="15"/>
+    <row r="283" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B283" s="14"/>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B284" s="15"/>
+    <row r="284" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B284" s="14"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B285" s="15"/>
+    <row r="285" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B285" s="14"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B286" s="15"/>
+    <row r="286" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B286" s="14"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B287" s="15"/>
+    <row r="287" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B287" s="14"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B288" s="15"/>
+    <row r="288" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B288" s="14"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B289" s="15"/>
+    <row r="289" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B289" s="14"/>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B290" s="15"/>
+    <row r="290" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B290" s="14"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B291" s="15"/>
+    <row r="291" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B291" s="14"/>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B292" s="15"/>
+    <row r="292" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B292" s="14"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B293" s="15"/>
+    <row r="293" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B293" s="14"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B294" s="15"/>
+    <row r="294" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B294" s="14"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B295" s="15"/>
+    <row r="295" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B295" s="14"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B296" s="15"/>
+    <row r="296" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B296" s="14"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B297" s="15"/>
+    <row r="297" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B297" s="14"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B298" s="15"/>
+    <row r="298" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B298" s="14"/>
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B299" s="15"/>
+    <row r="299" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B299" s="14"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B300" s="15"/>
+    <row r="300" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B300" s="14"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B301" s="15"/>
+    <row r="301" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B301" s="14"/>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B302" s="15"/>
+    <row r="302" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B302" s="14"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B303" s="15"/>
+    <row r="303" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B303" s="14"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B304" s="15"/>
+    <row r="304" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B304" s="14"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B305" s="15"/>
+    <row r="305" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B305" s="14"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B306" s="15"/>
+    <row r="306" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B306" s="14"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B307" s="15"/>
+    <row r="307" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B307" s="14"/>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B308" s="15"/>
+    <row r="308" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B308" s="14"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B309" s="15"/>
+    <row r="309" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B309" s="14"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B310" s="15"/>
+    <row r="310" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B310" s="14"/>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B311" s="15"/>
+    <row r="311" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B311" s="14"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B312" s="15"/>
+    <row r="312" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B312" s="14"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B313" s="15"/>
+    <row r="313" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B313" s="14"/>
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B314" s="15"/>
+    <row r="314" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B314" s="14"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B315" s="15"/>
+    <row r="315" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B315" s="14"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B316" s="15"/>
+    <row r="316" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B316" s="14"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B317" s="15"/>
+    <row r="317" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B317" s="14"/>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B318" s="15"/>
+    <row r="318" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B318" s="14"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B319" s="15"/>
+    <row r="319" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B319" s="14"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B320" s="15"/>
+    <row r="320" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B320" s="14"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B321" s="15"/>
+    <row r="321" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B321" s="14"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B322" s="15"/>
+    <row r="322" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B322" s="14"/>
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B323" s="15"/>
+    <row r="323" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B323" s="14"/>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B324" s="15"/>
+    <row r="324" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B324" s="14"/>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B325" s="15"/>
+    <row r="325" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B325" s="14"/>
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B326" s="15"/>
+    <row r="326" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B326" s="14"/>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B327" s="15"/>
+    <row r="327" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B327" s="14"/>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B328" s="15"/>
+    <row r="328" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B328" s="14"/>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B329" s="15"/>
+    <row r="329" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B329" s="14"/>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B330" s="15"/>
+    <row r="330" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B330" s="14"/>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B331" s="15"/>
+    <row r="331" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B331" s="14"/>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B332" s="15"/>
+    <row r="332" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B332" s="14"/>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
     </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B333" s="15"/>
+    <row r="333" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B333" s="14"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B334" s="15"/>
+    <row r="334" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B334" s="14"/>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B335" s="15"/>
+    <row r="335" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B335" s="14"/>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B336" s="15"/>
+    <row r="336" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B336" s="14"/>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
     </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B337" s="15"/>
+    <row r="337" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B337" s="14"/>
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
     </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B338" s="15"/>
+    <row r="338" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B338" s="14"/>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
     </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B339" s="15"/>
+    <row r="339" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B339" s="14"/>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
     </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B340" s="15"/>
+    <row r="340" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B340" s="14"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B341" s="15"/>
+    <row r="341" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B341" s="14"/>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
     </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B342" s="15"/>
+    <row r="342" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B342" s="14"/>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
     </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B343" s="15"/>
+    <row r="343" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B343" s="14"/>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
     </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B344" s="15"/>
+    <row r="344" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B344" s="14"/>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
     </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B345" s="15"/>
+    <row r="345" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B345" s="14"/>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
     </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B346" s="15"/>
+    <row r="346" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B346" s="14"/>
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
     </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B347" s="15"/>
+    <row r="347" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B347" s="14"/>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
     </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B348" s="15"/>
+    <row r="348" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B348" s="14"/>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
     </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B349" s="15"/>
+    <row r="349" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B349" s="14"/>
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
     </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B350" s="15"/>
+    <row r="350" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B350" s="14"/>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
     </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B351" s="15"/>
+    <row r="351" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B351" s="14"/>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
     </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B352" s="15"/>
+    <row r="352" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B352" s="14"/>
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
     </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B353" s="15"/>
+    <row r="353" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B353" s="14"/>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
     </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B354" s="15"/>
+    <row r="354" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B354" s="14"/>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
     </row>
-    <row r="355" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B355" s="15"/>
+    <row r="355" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B355" s="14"/>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
     </row>
-    <row r="356" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B356" s="15"/>
+    <row r="356" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B356" s="14"/>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
     </row>
-    <row r="357" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B357" s="15"/>
+    <row r="357" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B357" s="14"/>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
     </row>
-    <row r="358" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B358" s="15"/>
+    <row r="358" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B358" s="14"/>
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
     </row>
-    <row r="359" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B359" s="15"/>
+    <row r="359" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B359" s="14"/>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
     </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B360" s="15"/>
+    <row r="360" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B360" s="14"/>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
     </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B361" s="15"/>
+    <row r="361" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B361" s="14"/>
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
     </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B362" s="15"/>
+    <row r="362" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B362" s="14"/>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
     </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B363" s="15"/>
+    <row r="363" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B363" s="14"/>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
     </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B364" s="15"/>
+    <row r="364" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B364" s="14"/>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
     </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B365" s="15"/>
+    <row r="365" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B365" s="14"/>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
     </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B366" s="15"/>
+    <row r="366" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B366" s="14"/>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
     </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B367" s="15"/>
+    <row r="367" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B367" s="14"/>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
     </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B368" s="15"/>
+    <row r="368" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B368" s="14"/>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
     </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B369" s="15"/>
+    <row r="369" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B369" s="14"/>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
     </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B370" s="15"/>
+    <row r="370" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B370" s="14"/>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
     </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B371" s="15"/>
+    <row r="371" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B371" s="14"/>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
     </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B372" s="15"/>
+    <row r="372" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B372" s="14"/>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
     </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B373" s="15"/>
+    <row r="373" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B373" s="14"/>
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
     </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B374" s="15"/>
+    <row r="374" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B374" s="14"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
     </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B375" s="15"/>
+    <row r="375" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B375" s="14"/>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
     </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B376" s="15"/>
+    <row r="376" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B376" s="14"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
     </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B377" s="15"/>
+    <row r="377" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B377" s="14"/>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
     </row>
-    <row r="378" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B378" s="15"/>
+    <row r="378" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B378" s="14"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
     </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B379" s="15"/>
+    <row r="379" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B379" s="14"/>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
     </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B380" s="15"/>
+    <row r="380" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B380" s="14"/>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
     </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B381" s="15"/>
+    <row r="381" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B381" s="14"/>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
     </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B382" s="15"/>
+    <row r="382" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B382" s="14"/>
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
     </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B383" s="15"/>
+    <row r="383" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B383" s="14"/>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
     </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B384" s="15"/>
+    <row r="384" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B384" s="14"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
     </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B385" s="15"/>
+    <row r="385" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B385" s="14"/>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
     </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B386" s="15"/>
+    <row r="386" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B386" s="14"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
     </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B387" s="15"/>
+    <row r="387" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B387" s="14"/>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
     </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B388" s="15"/>
+    <row r="388" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B388" s="14"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
     </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B389" s="15"/>
+    <row r="389" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B389" s="14"/>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
     </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B390" s="15"/>
+    <row r="390" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B390" s="14"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
     </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B391" s="15"/>
+    <row r="391" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B391" s="14"/>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
     </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B392" s="15"/>
+    <row r="392" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B392" s="14"/>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
     </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B393" s="15"/>
+    <row r="393" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B393" s="14"/>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
     </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B394" s="15"/>
+    <row r="394" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B394" s="14"/>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
     </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B395" s="15"/>
+    <row r="395" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B395" s="14"/>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
     </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B396" s="15"/>
+    <row r="396" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B396" s="14"/>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
     </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B397" s="15"/>
+    <row r="397" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B397" s="14"/>
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
     </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B398" s="15"/>
+    <row r="398" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B398" s="14"/>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
     </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B399" s="15"/>
+    <row r="399" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B399" s="14"/>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
     </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B400" s="15"/>
+    <row r="400" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B400" s="14"/>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
     </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B401" s="15"/>
+    <row r="401" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B401" s="14"/>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
     </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B402" s="15"/>
+    <row r="402" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B402" s="14"/>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
     </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B403" s="15"/>
+    <row r="403" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B403" s="14"/>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
     </row>
-    <row r="404" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B404" s="15"/>
+    <row r="404" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B404" s="14"/>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
     </row>
-    <row r="405" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B405" s="15"/>
+    <row r="405" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B405" s="14"/>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B406" s="15"/>
+    <row r="406" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B406" s="14"/>
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
     </row>
-    <row r="407" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B407" s="15"/>
+    <row r="407" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B407" s="14"/>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
     </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B408" s="15"/>
+    <row r="408" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B408" s="14"/>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
     </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B409" s="15"/>
+    <row r="409" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B409" s="14"/>
       <c r="G409" s="4"/>
       <c r="H409" s="4"/>
     </row>
-    <row r="410" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B410" s="15"/>
+    <row r="410" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B410" s="14"/>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
     </row>
-    <row r="411" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B411" s="15"/>
+    <row r="411" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B411" s="14"/>
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
     </row>
-    <row r="412" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B412" s="15"/>
+    <row r="412" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B412" s="14"/>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
     </row>
-    <row r="413" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B413" s="15"/>
+    <row r="413" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B413" s="14"/>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
     </row>
-    <row r="414" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B414" s="15"/>
+    <row r="414" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B414" s="14"/>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
     </row>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B415" s="15"/>
+    <row r="415" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B415" s="14"/>
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
     </row>
-    <row r="416" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B416" s="15"/>
+    <row r="416" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B416" s="14"/>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
     </row>
-    <row r="417" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B417" s="15"/>
+    <row r="417" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B417" s="14"/>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
     </row>
-    <row r="418" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B418" s="15"/>
+    <row r="418" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B418" s="14"/>
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
     </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B419" s="15"/>
+    <row r="419" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B419" s="14"/>
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
     </row>
-    <row r="420" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B420" s="15"/>
+    <row r="420" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B420" s="14"/>
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
     </row>
-    <row r="421" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B421" s="15"/>
+    <row r="421" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B421" s="14"/>
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
     </row>
-    <row r="422" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B422" s="15"/>
+    <row r="422" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B422" s="14"/>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
     </row>
-    <row r="423" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B423" s="15"/>
+    <row r="423" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B423" s="14"/>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
     </row>
-    <row r="424" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B424" s="15"/>
+    <row r="424" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B424" s="14"/>
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
     </row>
-    <row r="425" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B425" s="15"/>
+    <row r="425" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B425" s="14"/>
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
     </row>
-    <row r="426" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B426" s="15"/>
+    <row r="426" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B426" s="14"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
     </row>
-    <row r="427" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B427" s="15"/>
+    <row r="427" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B427" s="14"/>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
     </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B428" s="15"/>
+    <row r="428" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B428" s="14"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
     </row>
-    <row r="429" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B429" s="15"/>
+    <row r="429" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B429" s="14"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
     </row>
-    <row r="430" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B430" s="15"/>
+    <row r="430" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B430" s="14"/>
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
     </row>
-    <row r="431" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B431" s="15"/>
+    <row r="431" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B431" s="14"/>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
     </row>
-    <row r="432" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B432" s="15"/>
+    <row r="432" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B432" s="14"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B433" s="15"/>
+    <row r="433" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B433" s="14"/>
       <c r="G433" s="4"/>
       <c r="H433" s="4"/>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B434" s="15"/>
+    <row r="434" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B434" s="14"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B435" s="15"/>
+    <row r="435" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B435" s="14"/>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
     </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B436" s="15"/>
+    <row r="436" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B436" s="14"/>
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
     </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B437" s="15"/>
+    <row r="437" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B437" s="14"/>
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
     </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B438" s="15"/>
+    <row r="438" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B438" s="14"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B439" s="15"/>
+    <row r="439" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B439" s="14"/>
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B440" s="15"/>
+    <row r="440" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B440" s="14"/>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B441" s="15"/>
+    <row r="441" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B441" s="14"/>
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B442" s="15"/>
+    <row r="442" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B442" s="14"/>
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B443" s="15"/>
+    <row r="443" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B443" s="14"/>
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
     </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B444" s="15"/>
+    <row r="444" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B444" s="14"/>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B445" s="15"/>
+    <row r="445" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B445" s="14"/>
       <c r="G445" s="4"/>
       <c r="H445" s="4"/>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B446" s="15"/>
+    <row r="446" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B446" s="14"/>
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
     </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B447" s="15"/>
+    <row r="447" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B447" s="14"/>
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
     </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B448" s="15"/>
+    <row r="448" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B448" s="14"/>
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
     </row>
-    <row r="449" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B449" s="15"/>
+    <row r="449" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B449" s="14"/>
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
     </row>
-    <row r="450" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B450" s="15"/>
+    <row r="450" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B450" s="14"/>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
     </row>
-    <row r="451" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B451" s="15"/>
+    <row r="451" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B451" s="14"/>
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
     </row>
-    <row r="452" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B452" s="15"/>
+    <row r="452" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B452" s="14"/>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
     </row>
-    <row r="453" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B453" s="15"/>
+    <row r="453" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B453" s="14"/>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
     </row>
-    <row r="454" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B454" s="15"/>
+    <row r="454" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B454" s="14"/>
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
     </row>
-    <row r="455" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B455" s="15"/>
+    <row r="455" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B455" s="14"/>
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
     </row>
-    <row r="456" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B456" s="15"/>
+    <row r="456" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B456" s="14"/>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
     </row>
-    <row r="457" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B457" s="15"/>
+    <row r="457" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B457" s="14"/>
       <c r="G457" s="4"/>
       <c r="H457" s="4"/>
     </row>
-    <row r="458" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B458" s="15"/>
+    <row r="458" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B458" s="14"/>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
     </row>
-    <row r="459" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B459" s="15"/>
+    <row r="459" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B459" s="14"/>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
     </row>
-    <row r="460" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B460" s="15"/>
+    <row r="460" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B460" s="14"/>
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
     </row>
-    <row r="461" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B461" s="15"/>
+    <row r="461" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B461" s="14"/>
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
     </row>
-    <row r="462" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B462" s="15"/>
+    <row r="462" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B462" s="14"/>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
     </row>
-    <row r="463" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B463" s="15"/>
+    <row r="463" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B463" s="14"/>
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
     </row>
-    <row r="464" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B464" s="15"/>
+    <row r="464" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B464" s="14"/>
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
     </row>
-    <row r="465" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B465" s="15"/>
+    <row r="465" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B465" s="14"/>
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
     </row>
-    <row r="466" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B466" s="15"/>
+    <row r="466" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B466" s="14"/>
       <c r="G466" s="4"/>
       <c r="H466" s="4"/>
     </row>
-    <row r="467" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B467" s="15"/>
+    <row r="467" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B467" s="14"/>
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
     </row>
-    <row r="468" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B468" s="15"/>
+    <row r="468" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B468" s="14"/>
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
     </row>
-    <row r="469" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B469" s="15"/>
+    <row r="469" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B469" s="14"/>
       <c r="G469" s="4"/>
       <c r="H469" s="4"/>
     </row>
-    <row r="470" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B470" s="15"/>
+    <row r="470" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B470" s="14"/>
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
     </row>
-    <row r="471" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B471" s="15"/>
+    <row r="471" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B471" s="14"/>
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
     </row>
-    <row r="472" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B472" s="15"/>
+    <row r="472" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B472" s="14"/>
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
     </row>
-    <row r="473" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B473" s="15"/>
+    <row r="473" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B473" s="14"/>
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
     </row>
-    <row r="474" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B474" s="15"/>
+    <row r="474" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B474" s="14"/>
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
     </row>
-    <row r="475" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B475" s="15"/>
+    <row r="475" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B475" s="14"/>
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
     </row>
-    <row r="476" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B476" s="15"/>
+    <row r="476" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B476" s="14"/>
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
     </row>
-    <row r="477" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B477" s="15"/>
+    <row r="477" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B477" s="14"/>
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
     </row>
-    <row r="478" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B478" s="15"/>
+    <row r="478" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B478" s="14"/>
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
     </row>
-    <row r="479" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B479" s="15"/>
+    <row r="479" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B479" s="14"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
     </row>
-    <row r="480" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B480" s="15"/>
+    <row r="480" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B480" s="14"/>
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
     </row>
-    <row r="481" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B481" s="15"/>
+    <row r="481" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B481" s="14"/>
       <c r="G481" s="4"/>
       <c r="H481" s="4"/>
     </row>
-    <row r="482" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B482" s="15"/>
+    <row r="482" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B482" s="14"/>
       <c r="G482" s="4"/>
       <c r="H482" s="4"/>
     </row>
-    <row r="483" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B483" s="15"/>
+    <row r="483" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B483" s="14"/>
       <c r="G483" s="4"/>
       <c r="H483" s="4"/>
     </row>
-    <row r="484" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B484" s="15"/>
+    <row r="484" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B484" s="14"/>
       <c r="G484" s="4"/>
       <c r="H484" s="4"/>
     </row>
-    <row r="485" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B485" s="15"/>
+    <row r="485" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B485" s="14"/>
       <c r="G485" s="4"/>
       <c r="H485" s="4"/>
     </row>
-    <row r="486" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B486" s="15"/>
+    <row r="486" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B486" s="14"/>
       <c r="G486" s="4"/>
       <c r="H486" s="4"/>
     </row>
-    <row r="487" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B487" s="15"/>
+    <row r="487" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B487" s="14"/>
       <c r="G487" s="4"/>
       <c r="H487" s="4"/>
     </row>
-    <row r="488" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B488" s="15"/>
+    <row r="488" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B488" s="14"/>
       <c r="G488" s="4"/>
       <c r="H488" s="4"/>
     </row>
-    <row r="489" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B489" s="15"/>
+    <row r="489" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B489" s="14"/>
       <c r="G489" s="4"/>
       <c r="H489" s="4"/>
     </row>
-    <row r="490" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B490" s="15"/>
+    <row r="490" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B490" s="14"/>
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
     </row>
-    <row r="491" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B491" s="15"/>
+    <row r="491" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B491" s="14"/>
       <c r="G491" s="4"/>
       <c r="H491" s="4"/>
     </row>
-    <row r="492" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B492" s="15"/>
+    <row r="492" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B492" s="14"/>
       <c r="G492" s="4"/>
       <c r="H492" s="4"/>
     </row>
-    <row r="493" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B493" s="15"/>
+    <row r="493" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B493" s="14"/>
       <c r="G493" s="4"/>
       <c r="H493" s="4"/>
     </row>
-    <row r="494" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B494" s="15"/>
+    <row r="494" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B494" s="14"/>
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
     </row>
-    <row r="495" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B495" s="15"/>
+    <row r="495" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B495" s="14"/>
       <c r="G495" s="4"/>
       <c r="H495" s="4"/>
     </row>
-    <row r="496" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B496" s="15"/>
+    <row r="496" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B496" s="14"/>
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
     </row>
-    <row r="497" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B497" s="15"/>
+    <row r="497" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B497" s="14"/>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
     </row>
-    <row r="498" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B498" s="15"/>
+    <row r="498" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B498" s="14"/>
       <c r="G498" s="4"/>
       <c r="H498" s="4"/>
     </row>
-    <row r="499" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B499" s="15"/>
+    <row r="499" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B499" s="14"/>
       <c r="G499" s="4"/>
       <c r="H499" s="4"/>
     </row>
-    <row r="500" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B500" s="15"/>
+    <row r="500" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B500" s="14"/>
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
     </row>
-    <row r="501" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B501" s="15"/>
+    <row r="501" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B501" s="14"/>
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
     </row>
-    <row r="502" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B502" s="15"/>
+    <row r="502" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B502" s="14"/>
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
     </row>
-    <row r="503" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B503" s="15"/>
+    <row r="503" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B503" s="14"/>
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
     </row>
-    <row r="504" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B504" s="15"/>
+    <row r="504" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B504" s="14"/>
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
     </row>
-    <row r="505" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B505" s="15"/>
+    <row r="505" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B505" s="14"/>
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
     </row>
-    <row r="506" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B506" s="15"/>
+    <row r="506" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B506" s="14"/>
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
     </row>
-    <row r="507" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B507" s="15"/>
+    <row r="507" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B507" s="14"/>
       <c r="G507" s="4"/>
       <c r="H507" s="4"/>
     </row>
-    <row r="508" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B508" s="15"/>
+    <row r="508" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B508" s="14"/>
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
     </row>
-    <row r="509" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B509" s="15"/>
+    <row r="509" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B509" s="14"/>
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
     </row>
-    <row r="510" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B510" s="15"/>
+    <row r="510" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B510" s="14"/>
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
     </row>
-    <row r="511" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B511" s="15"/>
+    <row r="511" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B511" s="14"/>
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
     </row>
-    <row r="512" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B512" s="15"/>
+    <row r="512" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B512" s="14"/>
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
     </row>
-    <row r="513" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B513" s="15"/>
+    <row r="513" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B513" s="14"/>
       <c r="G513" s="4"/>
       <c r="H513" s="4"/>
     </row>
-    <row r="514" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B514" s="15"/>
+    <row r="514" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B514" s="14"/>
       <c r="G514" s="4"/>
       <c r="H514" s="4"/>
     </row>
-    <row r="515" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B515" s="15"/>
+    <row r="515" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B515" s="14"/>
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
     </row>
-    <row r="516" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B516" s="15"/>
+    <row r="516" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B516" s="14"/>
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
     </row>
-    <row r="517" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B517" s="15"/>
+    <row r="517" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B517" s="14"/>
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
     </row>
-    <row r="518" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B518" s="15"/>
+    <row r="518" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B518" s="14"/>
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
     </row>
-    <row r="519" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B519" s="15"/>
+    <row r="519" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B519" s="14"/>
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
     </row>
-    <row r="520" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B520" s="15"/>
+    <row r="520" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B520" s="14"/>
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
     </row>
-    <row r="521" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B521" s="15"/>
+    <row r="521" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B521" s="14"/>
       <c r="G521" s="4"/>
       <c r="H521" s="4"/>
     </row>
-    <row r="522" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B522" s="15"/>
+    <row r="522" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B522" s="14"/>
       <c r="G522" s="4"/>
       <c r="H522" s="4"/>
     </row>
-    <row r="523" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B523" s="15"/>
+    <row r="523" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B523" s="14"/>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
     </row>
-    <row r="524" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B524" s="15"/>
+    <row r="524" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B524" s="14"/>
       <c r="G524" s="4"/>
       <c r="H524" s="4"/>
     </row>
-    <row r="525" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B525" s="15"/>
+    <row r="525" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B525" s="14"/>
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
     </row>
-    <row r="526" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B526" s="15"/>
+    <row r="526" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B526" s="14"/>
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
     </row>
-    <row r="527" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B527" s="15"/>
+    <row r="527" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B527" s="14"/>
       <c r="G527" s="4"/>
       <c r="H527" s="4"/>
     </row>
-    <row r="528" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B528" s="15"/>
+    <row r="528" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B528" s="14"/>
       <c r="G528" s="4"/>
       <c r="H528" s="4"/>
     </row>
-    <row r="529" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B529" s="15"/>
+    <row r="529" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B529" s="14"/>
       <c r="G529" s="4"/>
       <c r="H529" s="4"/>
     </row>
-    <row r="530" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B530" s="15"/>
+    <row r="530" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B530" s="14"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
     </row>
-    <row r="531" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B531" s="15"/>
+    <row r="531" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B531" s="14"/>
       <c r="G531" s="4"/>
       <c r="H531" s="4"/>
     </row>
-    <row r="532" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B532" s="15"/>
+    <row r="532" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B532" s="14"/>
       <c r="G532" s="4"/>
       <c r="H532" s="4"/>
     </row>
-    <row r="533" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B533" s="15"/>
+    <row r="533" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B533" s="14"/>
       <c r="G533" s="4"/>
       <c r="H533" s="4"/>
     </row>
-    <row r="534" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B534" s="15"/>
+    <row r="534" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B534" s="14"/>
       <c r="G534" s="4"/>
       <c r="H534" s="4"/>
     </row>
-    <row r="535" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B535" s="15"/>
+    <row r="535" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B535" s="14"/>
       <c r="G535" s="4"/>
       <c r="H535" s="4"/>
     </row>
-    <row r="536" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B536" s="15"/>
+    <row r="536" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B536" s="14"/>
       <c r="G536" s="4"/>
       <c r="H536" s="4"/>
     </row>
-    <row r="537" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B537" s="15"/>
+    <row r="537" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B537" s="14"/>
       <c r="G537" s="4"/>
       <c r="H537" s="4"/>
     </row>
-    <row r="538" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B538" s="15"/>
+    <row r="538" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B538" s="14"/>
       <c r="G538" s="4"/>
       <c r="H538" s="4"/>
     </row>
-    <row r="539" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B539" s="15"/>
+    <row r="539" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B539" s="14"/>
       <c r="G539" s="4"/>
       <c r="H539" s="4"/>
     </row>
-    <row r="540" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B540" s="15"/>
+    <row r="540" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B540" s="14"/>
       <c r="G540" s="4"/>
       <c r="H540" s="4"/>
     </row>
-    <row r="541" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B541" s="15"/>
+    <row r="541" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B541" s="14"/>
       <c r="G541" s="4"/>
       <c r="H541" s="4"/>
     </row>
-    <row r="542" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B542" s="15"/>
+    <row r="542" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B542" s="14"/>
       <c r="G542" s="4"/>
       <c r="H542" s="4"/>
     </row>
-    <row r="543" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B543" s="15"/>
+    <row r="543" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B543" s="14"/>
       <c r="G543" s="4"/>
       <c r="H543" s="4"/>
     </row>
-    <row r="544" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B544" s="15"/>
+    <row r="544" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B544" s="14"/>
       <c r="G544" s="4"/>
       <c r="H544" s="4"/>
     </row>
-    <row r="545" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B545" s="15"/>
+    <row r="545" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B545" s="14"/>
       <c r="G545" s="4"/>
       <c r="H545" s="4"/>
     </row>
-    <row r="546" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B546" s="15"/>
+    <row r="546" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B546" s="14"/>
       <c r="G546" s="4"/>
       <c r="H546" s="4"/>
     </row>
-    <row r="547" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B547" s="15"/>
+    <row r="547" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B547" s="14"/>
       <c r="G547" s="4"/>
       <c r="H547" s="4"/>
     </row>
-    <row r="548" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B548" s="15"/>
+    <row r="548" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B548" s="14"/>
       <c r="G548" s="4"/>
       <c r="H548" s="4"/>
     </row>
-    <row r="549" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B549" s="15"/>
+    <row r="549" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B549" s="14"/>
       <c r="G549" s="4"/>
       <c r="H549" s="4"/>
     </row>
-    <row r="550" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B550" s="15"/>
+    <row r="550" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B550" s="14"/>
       <c r="G550" s="4"/>
       <c r="H550" s="4"/>
     </row>
-    <row r="551" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B551" s="15"/>
+    <row r="551" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B551" s="14"/>
       <c r="G551" s="4"/>
       <c r="H551" s="4"/>
     </row>
-    <row r="552" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B552" s="15"/>
+    <row r="552" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B552" s="14"/>
       <c r="G552" s="4"/>
       <c r="H552" s="4"/>
     </row>
-    <row r="553" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B553" s="15"/>
+    <row r="553" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B553" s="14"/>
       <c r="G553" s="4"/>
       <c r="H553" s="4"/>
     </row>
-    <row r="554" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B554" s="15"/>
+    <row r="554" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B554" s="14"/>
       <c r="G554" s="4"/>
       <c r="H554" s="4"/>
     </row>
-    <row r="555" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B555" s="15"/>
+    <row r="555" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B555" s="14"/>
       <c r="G555" s="4"/>
       <c r="H555" s="4"/>
     </row>
-    <row r="556" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B556" s="15"/>
+    <row r="556" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B556" s="14"/>
       <c r="G556" s="4"/>
       <c r="H556" s="4"/>
     </row>
-    <row r="557" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B557" s="15"/>
+    <row r="557" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B557" s="14"/>
       <c r="G557" s="4"/>
       <c r="H557" s="4"/>
     </row>
-    <row r="558" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B558" s="15"/>
+    <row r="558" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B558" s="14"/>
       <c r="G558" s="4"/>
       <c r="H558" s="4"/>
     </row>
-    <row r="559" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B559" s="15"/>
+    <row r="559" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B559" s="14"/>
       <c r="G559" s="4"/>
       <c r="H559" s="4"/>
     </row>
-    <row r="560" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B560" s="15"/>
+    <row r="560" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B560" s="14"/>
       <c r="G560" s="4"/>
       <c r="H560" s="4"/>
     </row>
-    <row r="561" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B561" s="15"/>
+    <row r="561" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B561" s="14"/>
       <c r="G561" s="4"/>
       <c r="H561" s="4"/>
     </row>
-    <row r="562" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B562" s="15"/>
+    <row r="562" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B562" s="14"/>
       <c r="G562" s="4"/>
       <c r="H562" s="4"/>
     </row>
-    <row r="563" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B563" s="15"/>
+    <row r="563" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B563" s="14"/>
       <c r="G563" s="4"/>
       <c r="H563" s="4"/>
     </row>
-    <row r="564" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B564" s="15"/>
+    <row r="564" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B564" s="14"/>
       <c r="G564" s="4"/>
       <c r="H564" s="4"/>
     </row>
-    <row r="565" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B565" s="15"/>
+    <row r="565" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B565" s="14"/>
       <c r="G565" s="4"/>
       <c r="H565" s="4"/>
     </row>
-    <row r="566" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B566" s="15"/>
+    <row r="566" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B566" s="14"/>
       <c r="G566" s="4"/>
       <c r="H566" s="4"/>
     </row>
-    <row r="567" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B567" s="15"/>
+    <row r="567" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B567" s="14"/>
       <c r="G567" s="4"/>
       <c r="H567" s="4"/>
     </row>
-    <row r="568" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B568" s="15"/>
+    <row r="568" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B568" s="14"/>
       <c r="G568" s="4"/>
       <c r="H568" s="4"/>
     </row>
-    <row r="569" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B569" s="15"/>
+    <row r="569" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B569" s="14"/>
       <c r="G569" s="4"/>
       <c r="H569" s="4"/>
     </row>
-    <row r="570" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B570" s="15"/>
+    <row r="570" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B570" s="14"/>
       <c r="G570" s="4"/>
       <c r="H570" s="4"/>
     </row>
-    <row r="571" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B571" s="15"/>
+    <row r="571" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B571" s="14"/>
       <c r="G571" s="4"/>
       <c r="H571" s="4"/>
     </row>
-    <row r="572" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B572" s="15"/>
+    <row r="572" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B572" s="14"/>
       <c r="G572" s="4"/>
       <c r="H572" s="4"/>
     </row>
-    <row r="573" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B573" s="15"/>
+    <row r="573" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B573" s="14"/>
       <c r="G573" s="4"/>
       <c r="H573" s="4"/>
     </row>
-    <row r="574" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B574" s="15"/>
+    <row r="574" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B574" s="14"/>
       <c r="G574" s="4"/>
       <c r="H574" s="4"/>
     </row>
-    <row r="575" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B575" s="15"/>
+    <row r="575" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B575" s="14"/>
       <c r="G575" s="4"/>
       <c r="H575" s="4"/>
     </row>
-    <row r="576" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B576" s="15"/>
+    <row r="576" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B576" s="14"/>
       <c r="G576" s="4"/>
       <c r="H576" s="4"/>
     </row>
-    <row r="577" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B577" s="15"/>
+    <row r="577" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B577" s="14"/>
       <c r="G577" s="4"/>
       <c r="H577" s="4"/>
     </row>
-    <row r="578" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B578" s="15"/>
+    <row r="578" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B578" s="14"/>
       <c r="G578" s="4"/>
       <c r="H578" s="4"/>
     </row>
-    <row r="579" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B579" s="15"/>
+    <row r="579" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B579" s="14"/>
       <c r="G579" s="4"/>
       <c r="H579" s="4"/>
     </row>
-    <row r="580" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B580" s="15"/>
+    <row r="580" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B580" s="14"/>
       <c r="G580" s="4"/>
       <c r="H580" s="4"/>
     </row>
-    <row r="581" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B581" s="15"/>
+    <row r="581" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B581" s="14"/>
       <c r="G581" s="4"/>
       <c r="H581" s="4"/>
     </row>
-    <row r="582" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B582" s="15"/>
+    <row r="582" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B582" s="14"/>
       <c r="G582" s="4"/>
       <c r="H582" s="4"/>
     </row>
-    <row r="583" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B583" s="15"/>
+    <row r="583" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B583" s="14"/>
       <c r="G583" s="4"/>
       <c r="H583" s="4"/>
     </row>
-    <row r="584" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B584" s="15"/>
+    <row r="584" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B584" s="14"/>
       <c r="G584" s="4"/>
       <c r="H584" s="4"/>
     </row>
-    <row r="585" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B585" s="15"/>
+    <row r="585" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B585" s="14"/>
       <c r="G585" s="4"/>
       <c r="H585" s="4"/>
     </row>
-    <row r="586" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B586" s="15"/>
+    <row r="586" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B586" s="14"/>
       <c r="G586" s="4"/>
       <c r="H586" s="4"/>
     </row>
-    <row r="587" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B587" s="15"/>
+    <row r="587" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B587" s="14"/>
       <c r="G587" s="4"/>
       <c r="H587" s="4"/>
     </row>
-    <row r="588" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B588" s="15"/>
+    <row r="588" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B588" s="14"/>
       <c r="G588" s="4"/>
       <c r="H588" s="4"/>
     </row>
-    <row r="589" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B589" s="15"/>
+    <row r="589" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B589" s="14"/>
       <c r="G589" s="4"/>
       <c r="H589" s="4"/>
     </row>
-    <row r="590" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B590" s="15"/>
+    <row r="590" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B590" s="14"/>
       <c r="G590" s="4"/>
       <c r="H590" s="4"/>
     </row>
-    <row r="591" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B591" s="15"/>
+    <row r="591" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B591" s="14"/>
       <c r="G591" s="4"/>
       <c r="H591" s="4"/>
     </row>
-    <row r="592" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B592" s="15"/>
+    <row r="592" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B592" s="14"/>
       <c r="G592" s="4"/>
       <c r="H592" s="4"/>
     </row>
-    <row r="593" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B593" s="15"/>
+    <row r="593" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B593" s="14"/>
       <c r="G593" s="4"/>
       <c r="H593" s="4"/>
     </row>
-    <row r="594" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B594" s="15"/>
+    <row r="594" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B594" s="14"/>
       <c r="G594" s="4"/>
       <c r="H594" s="4"/>
     </row>
-    <row r="595" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B595" s="15"/>
+    <row r="595" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B595" s="14"/>
       <c r="G595" s="4"/>
       <c r="H595" s="4"/>
     </row>
-    <row r="596" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B596" s="15"/>
+    <row r="596" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B596" s="14"/>
       <c r="G596" s="4"/>
       <c r="H596" s="4"/>
     </row>
-    <row r="597" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B597" s="15"/>
+    <row r="597" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B597" s="14"/>
       <c r="G597" s="4"/>
       <c r="H597" s="4"/>
     </row>
-    <row r="598" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B598" s="15"/>
+    <row r="598" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B598" s="14"/>
       <c r="G598" s="4"/>
       <c r="H598" s="4"/>
     </row>
-    <row r="599" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B599" s="15"/>
+    <row r="599" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B599" s="14"/>
       <c r="G599" s="4"/>
       <c r="H599" s="4"/>
     </row>
-    <row r="600" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B600" s="15"/>
+    <row r="600" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B600" s="14"/>
       <c r="G600" s="4"/>
       <c r="H600" s="4"/>
     </row>
-    <row r="601" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B601" s="15"/>
+    <row r="601" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B601" s="14"/>
       <c r="G601" s="4"/>
       <c r="H601" s="4"/>
     </row>
-    <row r="602" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B602" s="15"/>
+    <row r="602" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B602" s="14"/>
       <c r="G602" s="4"/>
       <c r="H602" s="4"/>
     </row>
-    <row r="603" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B603" s="15"/>
+    <row r="603" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B603" s="14"/>
       <c r="G603" s="4"/>
       <c r="H603" s="4"/>
     </row>
-    <row r="604" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B604" s="15"/>
+    <row r="604" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B604" s="14"/>
       <c r="G604" s="4"/>
       <c r="H604" s="4"/>
     </row>
-    <row r="605" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B605" s="15"/>
+    <row r="605" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B605" s="14"/>
       <c r="G605" s="4"/>
       <c r="H605" s="4"/>
     </row>
-    <row r="606" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B606" s="15"/>
+    <row r="606" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B606" s="14"/>
       <c r="G606" s="4"/>
       <c r="H606" s="4"/>
     </row>
-    <row r="607" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B607" s="15"/>
+    <row r="607" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B607" s="14"/>
       <c r="G607" s="4"/>
       <c r="H607" s="4"/>
     </row>
-    <row r="608" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B608" s="15"/>
+    <row r="608" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B608" s="14"/>
       <c r="G608" s="4"/>
       <c r="H608" s="4"/>
     </row>
-    <row r="609" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B609" s="15"/>
+    <row r="609" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B609" s="14"/>
       <c r="G609" s="4"/>
       <c r="H609" s="4"/>
     </row>
-    <row r="610" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B610" s="15"/>
+    <row r="610" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B610" s="14"/>
       <c r="G610" s="4"/>
       <c r="H610" s="4"/>
     </row>
-    <row r="611" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B611" s="15"/>
+    <row r="611" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B611" s="14"/>
       <c r="G611" s="4"/>
       <c r="H611" s="4"/>
     </row>
-    <row r="612" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B612" s="15"/>
+    <row r="612" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B612" s="14"/>
       <c r="G612" s="4"/>
       <c r="H612" s="4"/>
     </row>
-    <row r="613" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B613" s="15"/>
+    <row r="613" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B613" s="14"/>
       <c r="G613" s="4"/>
       <c r="H613" s="4"/>
     </row>
-    <row r="614" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B614" s="15"/>
+    <row r="614" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B614" s="14"/>
       <c r="G614" s="4"/>
       <c r="H614" s="4"/>
     </row>
-    <row r="615" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B615" s="15"/>
+    <row r="615" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B615" s="14"/>
       <c r="G615" s="4"/>
       <c r="H615" s="4"/>
     </row>
-    <row r="616" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B616" s="15"/>
+    <row r="616" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B616" s="14"/>
       <c r="G616" s="4"/>
       <c r="H616" s="4"/>
     </row>
-    <row r="617" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B617" s="15"/>
+    <row r="617" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B617" s="14"/>
       <c r="G617" s="4"/>
       <c r="H617" s="4"/>
     </row>
-    <row r="618" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B618" s="15"/>
+    <row r="618" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B618" s="14"/>
       <c r="G618" s="4"/>
       <c r="H618" s="4"/>
     </row>
-    <row r="619" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B619" s="15"/>
+    <row r="619" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B619" s="14"/>
       <c r="G619" s="4"/>
       <c r="H619" s="4"/>
     </row>
-    <row r="620" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B620" s="15"/>
+    <row r="620" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B620" s="14"/>
       <c r="G620" s="4"/>
       <c r="H620" s="4"/>
     </row>
-    <row r="621" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B621" s="15"/>
+    <row r="621" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B621" s="14"/>
       <c r="G621" s="4"/>
       <c r="H621" s="4"/>
     </row>
-    <row r="622" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B622" s="15"/>
+    <row r="622" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B622" s="14"/>
       <c r="G622" s="4"/>
       <c r="H622" s="4"/>
     </row>
-    <row r="623" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B623" s="15"/>
+    <row r="623" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B623" s="14"/>
       <c r="G623" s="4"/>
       <c r="H623" s="4"/>
     </row>
-    <row r="624" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B624" s="15"/>
+    <row r="624" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B624" s="14"/>
       <c r="G624" s="4"/>
       <c r="H624" s="4"/>
     </row>
-    <row r="625" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B625" s="15"/>
+    <row r="625" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B625" s="14"/>
       <c r="G625" s="4"/>
       <c r="H625" s="4"/>
     </row>
-    <row r="626" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B626" s="15"/>
+    <row r="626" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B626" s="14"/>
       <c r="G626" s="4"/>
       <c r="H626" s="4"/>
     </row>
-    <row r="627" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B627" s="15"/>
+    <row r="627" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B627" s="14"/>
       <c r="G627" s="4"/>
       <c r="H627" s="4"/>
     </row>
-    <row r="628" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B628" s="15"/>
+    <row r="628" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B628" s="14"/>
       <c r="G628" s="4"/>
       <c r="H628" s="4"/>
     </row>
-    <row r="629" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B629" s="15"/>
+    <row r="629" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B629" s="14"/>
       <c r="G629" s="4"/>
       <c r="H629" s="4"/>
     </row>
-    <row r="630" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B630" s="15"/>
+    <row r="630" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B630" s="14"/>
       <c r="G630" s="4"/>
       <c r="H630" s="4"/>
     </row>
-    <row r="631" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B631" s="15"/>
+    <row r="631" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B631" s="14"/>
       <c r="G631" s="4"/>
       <c r="H631" s="4"/>
     </row>
-    <row r="632" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B632" s="15"/>
+    <row r="632" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B632" s="14"/>
       <c r="G632" s="4"/>
       <c r="H632" s="4"/>
     </row>
-    <row r="633" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B633" s="15"/>
+    <row r="633" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B633" s="14"/>
       <c r="G633" s="4"/>
       <c r="H633" s="4"/>
     </row>
-    <row r="634" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B634" s="15"/>
+    <row r="634" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B634" s="14"/>
       <c r="G634" s="4"/>
       <c r="H634" s="4"/>
     </row>
-    <row r="635" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B635" s="15"/>
+    <row r="635" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B635" s="14"/>
       <c r="G635" s="4"/>
       <c r="H635" s="4"/>
     </row>
-    <row r="636" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B636" s="15"/>
+    <row r="636" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B636" s="14"/>
       <c r="G636" s="4"/>
       <c r="H636" s="4"/>
     </row>
-    <row r="637" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B637" s="15"/>
+    <row r="637" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B637" s="14"/>
       <c r="G637" s="4"/>
       <c r="H637" s="4"/>
     </row>
-    <row r="638" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B638" s="15"/>
+    <row r="638" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B638" s="14"/>
       <c r="G638" s="4"/>
       <c r="H638" s="4"/>
     </row>
-    <row r="639" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B639" s="15"/>
+    <row r="639" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B639" s="14"/>
       <c r="G639" s="4"/>
       <c r="H639" s="4"/>
     </row>
-    <row r="640" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B640" s="15"/>
+    <row r="640" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B640" s="14"/>
       <c r="G640" s="4"/>
       <c r="H640" s="4"/>
     </row>
-    <row r="641" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B641" s="15"/>
+    <row r="641" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B641" s="14"/>
       <c r="G641" s="4"/>
       <c r="H641" s="4"/>
     </row>
-    <row r="642" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B642" s="15"/>
+    <row r="642" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B642" s="14"/>
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
     </row>
-    <row r="643" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B643" s="15"/>
+    <row r="643" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B643" s="14"/>
       <c r="G643" s="4"/>
       <c r="H643" s="4"/>
     </row>
-    <row r="644" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B644" s="15"/>
+    <row r="644" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B644" s="14"/>
       <c r="G644" s="4"/>
       <c r="H644" s="4"/>
     </row>
-    <row r="645" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B645" s="15"/>
+    <row r="645" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B645" s="14"/>
       <c r="G645" s="4"/>
       <c r="H645" s="4"/>
     </row>
-    <row r="646" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B646" s="15"/>
+    <row r="646" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B646" s="14"/>
       <c r="G646" s="4"/>
       <c r="H646" s="4"/>
     </row>
-    <row r="647" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B647" s="15"/>
+    <row r="647" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B647" s="14"/>
       <c r="G647" s="4"/>
       <c r="H647" s="4"/>
     </row>
-    <row r="648" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B648" s="15"/>
+    <row r="648" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B648" s="14"/>
       <c r="G648" s="4"/>
       <c r="H648" s="4"/>
     </row>
-    <row r="649" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B649" s="15"/>
+    <row r="649" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B649" s="14"/>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
     </row>
-    <row r="650" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B650" s="15"/>
+    <row r="650" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B650" s="14"/>
       <c r="G650" s="4"/>
       <c r="H650" s="4"/>
     </row>
-    <row r="651" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B651" s="15"/>
+    <row r="651" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B651" s="14"/>
       <c r="G651" s="4"/>
       <c r="H651" s="4"/>
     </row>
-    <row r="652" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B652" s="15"/>
+    <row r="652" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B652" s="14"/>
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
     </row>
-    <row r="653" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B653" s="15"/>
+    <row r="653" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B653" s="14"/>
       <c r="G653" s="4"/>
       <c r="H653" s="4"/>
     </row>
-    <row r="654" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B654" s="15"/>
+    <row r="654" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B654" s="14"/>
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
     </row>
-    <row r="655" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B655" s="15"/>
+    <row r="655" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B655" s="14"/>
       <c r="G655" s="4"/>
       <c r="H655" s="4"/>
     </row>
-    <row r="656" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B656" s="15"/>
+    <row r="656" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B656" s="14"/>
       <c r="G656" s="4"/>
       <c r="H656" s="4"/>
     </row>
-    <row r="657" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B657" s="15"/>
+    <row r="657" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B657" s="14"/>
       <c r="G657" s="4"/>
       <c r="H657" s="4"/>
     </row>
-    <row r="658" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B658" s="15"/>
+    <row r="658" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B658" s="14"/>
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
     </row>
-    <row r="659" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B659" s="15"/>
+    <row r="659" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B659" s="14"/>
       <c r="G659" s="4"/>
       <c r="H659" s="4"/>
     </row>
-    <row r="660" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B660" s="15"/>
+    <row r="660" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B660" s="14"/>
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
     </row>
-    <row r="661" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B661" s="15"/>
+    <row r="661" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B661" s="14"/>
       <c r="G661" s="4"/>
       <c r="H661" s="4"/>
     </row>
-    <row r="662" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B662" s="15"/>
+    <row r="662" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B662" s="14"/>
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
     </row>
-    <row r="663" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B663" s="15"/>
+    <row r="663" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B663" s="14"/>
       <c r="G663" s="4"/>
       <c r="H663" s="4"/>
     </row>
-    <row r="664" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B664" s="15"/>
+    <row r="664" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B664" s="14"/>
       <c r="G664" s="4"/>
       <c r="H664" s="4"/>
     </row>
-    <row r="665" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B665" s="15"/>
+    <row r="665" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B665" s="14"/>
       <c r="G665" s="4"/>
       <c r="H665" s="4"/>
     </row>
-    <row r="666" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B666" s="15"/>
+    <row r="666" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B666" s="14"/>
       <c r="G666" s="4"/>
       <c r="H666" s="4"/>
     </row>
-    <row r="667" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B667" s="15"/>
+    <row r="667" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B667" s="14"/>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
     </row>
-    <row r="668" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B668" s="15"/>
+    <row r="668" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B668" s="14"/>
       <c r="G668" s="4"/>
       <c r="H668" s="4"/>
     </row>
-    <row r="669" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B669" s="15"/>
+    <row r="669" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B669" s="14"/>
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
     </row>
-    <row r="670" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B670" s="15"/>
+    <row r="670" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B670" s="14"/>
       <c r="G670" s="4"/>
       <c r="H670" s="4"/>
     </row>
-    <row r="671" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B671" s="15"/>
+    <row r="671" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B671" s="14"/>
       <c r="G671" s="4"/>
       <c r="H671" s="4"/>
     </row>
-    <row r="672" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B672" s="15"/>
+    <row r="672" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B672" s="14"/>
       <c r="G672" s="4"/>
       <c r="H672" s="4"/>
     </row>
-    <row r="673" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B673" s="15"/>
+    <row r="673" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B673" s="14"/>
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
     </row>
-    <row r="674" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B674" s="15"/>
+    <row r="674" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B674" s="14"/>
       <c r="G674" s="4"/>
       <c r="H674" s="4"/>
     </row>
-    <row r="675" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B675" s="15"/>
+    <row r="675" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B675" s="14"/>
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
     </row>
-    <row r="676" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B676" s="15"/>
+    <row r="676" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B676" s="14"/>
       <c r="G676" s="4"/>
       <c r="H676" s="4"/>
     </row>
-    <row r="677" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B677" s="15"/>
+    <row r="677" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B677" s="14"/>
       <c r="G677" s="4"/>
       <c r="H677" s="4"/>
     </row>
-    <row r="678" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B678" s="15"/>
+    <row r="678" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B678" s="14"/>
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
     </row>
-    <row r="679" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B679" s="15"/>
+    <row r="679" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B679" s="14"/>
       <c r="G679" s="4"/>
       <c r="H679" s="4"/>
     </row>
-    <row r="680" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B680" s="15"/>
+    <row r="680" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B680" s="14"/>
       <c r="G680" s="4"/>
       <c r="H680" s="4"/>
     </row>
-    <row r="681" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B681" s="15"/>
+    <row r="681" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B681" s="14"/>
       <c r="G681" s="4"/>
       <c r="H681" s="4"/>
     </row>
-    <row r="682" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B682" s="15"/>
+    <row r="682" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B682" s="14"/>
       <c r="G682" s="4"/>
       <c r="H682" s="4"/>
     </row>
-    <row r="683" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B683" s="15"/>
+    <row r="683" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B683" s="14"/>
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
     </row>
-    <row r="684" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B684" s="15"/>
+    <row r="684" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B684" s="14"/>
       <c r="G684" s="4"/>
       <c r="H684" s="4"/>
     </row>
-    <row r="685" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B685" s="15"/>
+    <row r="685" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B685" s="14"/>
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
     </row>
-    <row r="686" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B686" s="15"/>
+    <row r="686" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B686" s="14"/>
       <c r="G686" s="4"/>
       <c r="H686" s="4"/>
     </row>
-    <row r="687" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B687" s="15"/>
+    <row r="687" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B687" s="14"/>
       <c r="G687" s="4"/>
       <c r="H687" s="4"/>
     </row>
-    <row r="688" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B688" s="15"/>
+    <row r="688" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B688" s="14"/>
       <c r="G688" s="4"/>
       <c r="H688" s="4"/>
     </row>
-    <row r="689" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B689" s="15"/>
+    <row r="689" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B689" s="14"/>
       <c r="G689" s="4"/>
       <c r="H689" s="4"/>
     </row>
-    <row r="690" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B690" s="15"/>
+    <row r="690" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B690" s="14"/>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
     </row>
-    <row r="691" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B691" s="15"/>
+    <row r="691" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B691" s="14"/>
       <c r="G691" s="4"/>
       <c r="H691" s="4"/>
     </row>
-    <row r="692" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B692" s="15"/>
+    <row r="692" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B692" s="14"/>
       <c r="G692" s="4"/>
       <c r="H692" s="4"/>
     </row>
-    <row r="693" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B693" s="15"/>
+    <row r="693" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B693" s="14"/>
       <c r="G693" s="4"/>
       <c r="H693" s="4"/>
     </row>
-    <row r="694" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B694" s="15"/>
+    <row r="694" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B694" s="14"/>
       <c r="G694" s="4"/>
       <c r="H694" s="4"/>
     </row>
-    <row r="695" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B695" s="15"/>
+    <row r="695" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B695" s="14"/>
       <c r="G695" s="4"/>
       <c r="H695" s="4"/>
     </row>
-    <row r="696" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B696" s="15"/>
+    <row r="696" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B696" s="14"/>
       <c r="G696" s="4"/>
       <c r="H696" s="4"/>
     </row>
-    <row r="697" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B697" s="15"/>
+    <row r="697" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B697" s="14"/>
       <c r="G697" s="4"/>
       <c r="H697" s="4"/>
     </row>
-    <row r="698" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B698" s="15"/>
+    <row r="698" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B698" s="14"/>
       <c r="G698" s="4"/>
       <c r="H698" s="4"/>
     </row>
-    <row r="699" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B699" s="15"/>
+    <row r="699" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B699" s="14"/>
       <c r="G699" s="4"/>
       <c r="H699" s="4"/>
     </row>
-    <row r="700" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B700" s="15"/>
+    <row r="700" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B700" s="14"/>
       <c r="G700" s="4"/>
       <c r="H700" s="4"/>
     </row>
-    <row r="701" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B701" s="15"/>
+    <row r="701" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B701" s="14"/>
       <c r="G701" s="4"/>
       <c r="H701" s="4"/>
     </row>
-    <row r="702" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B702" s="15"/>
+    <row r="702" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B702" s="14"/>
       <c r="G702" s="4"/>
       <c r="H702" s="4"/>
     </row>
-    <row r="703" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B703" s="15"/>
+    <row r="703" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B703" s="14"/>
       <c r="G703" s="4"/>
       <c r="H703" s="4"/>
     </row>
-    <row r="704" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B704" s="15"/>
+    <row r="704" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B704" s="14"/>
       <c r="G704" s="4"/>
       <c r="H704" s="4"/>
     </row>
-    <row r="705" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B705" s="15"/>
+    <row r="705" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B705" s="14"/>
       <c r="G705" s="4"/>
       <c r="H705" s="4"/>
     </row>
-    <row r="706" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B706" s="15"/>
+    <row r="706" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B706" s="14"/>
       <c r="G706" s="4"/>
       <c r="H706" s="4"/>
     </row>
-    <row r="707" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B707" s="15"/>
+    <row r="707" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B707" s="14"/>
       <c r="G707" s="4"/>
       <c r="H707" s="4"/>
     </row>
-    <row r="708" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B708" s="15"/>
+    <row r="708" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B708" s="14"/>
       <c r="G708" s="4"/>
       <c r="H708" s="4"/>
     </row>
-    <row r="709" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B709" s="15"/>
+    <row r="709" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B709" s="14"/>
       <c r="G709" s="4"/>
       <c r="H709" s="4"/>
     </row>
-    <row r="710" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B710" s="15"/>
+    <row r="710" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B710" s="14"/>
       <c r="G710" s="4"/>
       <c r="H710" s="4"/>
     </row>
-    <row r="711" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B711" s="15"/>
+    <row r="711" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B711" s="14"/>
       <c r="G711" s="4"/>
       <c r="H711" s="4"/>
     </row>
-    <row r="712" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B712" s="15"/>
+    <row r="712" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B712" s="14"/>
       <c r="G712" s="4"/>
       <c r="H712" s="4"/>
     </row>
-    <row r="713" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B713" s="15"/>
+    <row r="713" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B713" s="14"/>
       <c r="G713" s="4"/>
       <c r="H713" s="4"/>
     </row>
-    <row r="714" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B714" s="15"/>
+    <row r="714" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B714" s="14"/>
       <c r="G714" s="4"/>
       <c r="H714" s="4"/>
     </row>
-    <row r="715" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B715" s="15"/>
+    <row r="715" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B715" s="14"/>
       <c r="G715" s="4"/>
       <c r="H715" s="4"/>
     </row>
-    <row r="716" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B716" s="15"/>
+    <row r="716" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B716" s="14"/>
       <c r="G716" s="4"/>
       <c r="H716" s="4"/>
     </row>
-    <row r="717" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B717" s="15"/>
+    <row r="717" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B717" s="14"/>
       <c r="G717" s="4"/>
       <c r="H717" s="4"/>
     </row>
-    <row r="718" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B718" s="15"/>
+    <row r="718" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B718" s="14"/>
       <c r="G718" s="4"/>
       <c r="H718" s="4"/>
     </row>
-    <row r="719" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B719" s="15"/>
+    <row r="719" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B719" s="14"/>
       <c r="G719" s="4"/>
       <c r="H719" s="4"/>
     </row>
-    <row r="720" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B720" s="15"/>
+    <row r="720" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B720" s="14"/>
       <c r="G720" s="4"/>
       <c r="H720" s="4"/>
     </row>
-    <row r="721" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B721" s="15"/>
+    <row r="721" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B721" s="14"/>
       <c r="G721" s="4"/>
       <c r="H721" s="4"/>
     </row>
-    <row r="722" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B722" s="15"/>
+    <row r="722" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B722" s="14"/>
       <c r="G722" s="4"/>
       <c r="H722" s="4"/>
     </row>
-    <row r="723" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B723" s="15"/>
+    <row r="723" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B723" s="14"/>
       <c r="G723" s="4"/>
       <c r="H723" s="4"/>
     </row>
-    <row r="724" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B724" s="15"/>
+    <row r="724" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B724" s="14"/>
       <c r="G724" s="4"/>
       <c r="H724" s="4"/>
     </row>
-    <row r="725" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B725" s="15"/>
+    <row r="725" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B725" s="14"/>
       <c r="G725" s="4"/>
       <c r="H725" s="4"/>
     </row>
-    <row r="726" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B726" s="15"/>
+    <row r="726" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B726" s="14"/>
       <c r="G726" s="4"/>
       <c r="H726" s="4"/>
     </row>
-    <row r="727" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B727" s="15"/>
+    <row r="727" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B727" s="14"/>
       <c r="G727" s="4"/>
       <c r="H727" s="4"/>
     </row>
-    <row r="728" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B728" s="15"/>
+    <row r="728" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B728" s="14"/>
       <c r="G728" s="4"/>
       <c r="H728" s="4"/>
     </row>
-    <row r="729" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B729" s="15"/>
+    <row r="729" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B729" s="14"/>
       <c r="G729" s="4"/>
       <c r="H729" s="4"/>
     </row>
-    <row r="730" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B730" s="15"/>
+    <row r="730" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B730" s="14"/>
       <c r="G730" s="4"/>
       <c r="H730" s="4"/>
     </row>
-    <row r="731" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B731" s="15"/>
+    <row r="731" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B731" s="14"/>
       <c r="G731" s="4"/>
       <c r="H731" s="4"/>
     </row>
-    <row r="732" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B732" s="15"/>
+    <row r="732" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B732" s="14"/>
       <c r="G732" s="4"/>
       <c r="H732" s="4"/>
     </row>
-    <row r="733" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B733" s="15"/>
+    <row r="733" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B733" s="14"/>
       <c r="G733" s="4"/>
       <c r="H733" s="4"/>
     </row>
-    <row r="734" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B734" s="15"/>
+    <row r="734" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B734" s="14"/>
       <c r="G734" s="4"/>
       <c r="H734" s="4"/>
     </row>
-    <row r="735" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B735" s="15"/>
+    <row r="735" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B735" s="14"/>
       <c r="G735" s="4"/>
       <c r="H735" s="4"/>
     </row>
-    <row r="736" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B736" s="15"/>
+    <row r="736" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B736" s="14"/>
       <c r="G736" s="4"/>
       <c r="H736" s="4"/>
     </row>
-    <row r="737" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B737" s="15"/>
+    <row r="737" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B737" s="14"/>
       <c r="G737" s="4"/>
       <c r="H737" s="4"/>
     </row>
-    <row r="738" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B738" s="15"/>
+    <row r="738" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B738" s="14"/>
       <c r="G738" s="4"/>
       <c r="H738" s="4"/>
     </row>
-    <row r="739" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B739" s="15"/>
+    <row r="739" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B739" s="14"/>
       <c r="G739" s="4"/>
       <c r="H739" s="4"/>
     </row>
-    <row r="740" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B740" s="15"/>
+    <row r="740" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B740" s="14"/>
       <c r="G740" s="4"/>
       <c r="H740" s="4"/>
     </row>
-    <row r="741" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B741" s="15"/>
+    <row r="741" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B741" s="14"/>
       <c r="G741" s="4"/>
       <c r="H741" s="4"/>
     </row>
-    <row r="742" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B742" s="15"/>
+    <row r="742" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B742" s="14"/>
       <c r="G742" s="4"/>
       <c r="H742" s="4"/>
     </row>
-    <row r="743" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B743" s="15"/>
+    <row r="743" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B743" s="14"/>
       <c r="G743" s="4"/>
       <c r="H743" s="4"/>
     </row>
-    <row r="744" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B744" s="15"/>
+    <row r="744" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B744" s="14"/>
       <c r="G744" s="4"/>
       <c r="H744" s="4"/>
     </row>
-    <row r="745" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B745" s="15"/>
+    <row r="745" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B745" s="14"/>
       <c r="G745" s="4"/>
       <c r="H745" s="4"/>
     </row>
-    <row r="746" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B746" s="15"/>
+    <row r="746" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B746" s="14"/>
       <c r="G746" s="4"/>
       <c r="H746" s="4"/>
     </row>
-    <row r="747" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B747" s="15"/>
+    <row r="747" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B747" s="14"/>
       <c r="G747" s="4"/>
       <c r="H747" s="4"/>
     </row>
-    <row r="748" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B748" s="15"/>
+    <row r="748" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B748" s="14"/>
       <c r="G748" s="4"/>
       <c r="H748" s="4"/>
     </row>
-    <row r="749" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B749" s="15"/>
+    <row r="749" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B749" s="14"/>
       <c r="G749" s="4"/>
       <c r="H749" s="4"/>
     </row>
-    <row r="750" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B750" s="15"/>
+    <row r="750" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B750" s="14"/>
       <c r="G750" s="4"/>
       <c r="H750" s="4"/>
     </row>
-    <row r="751" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B751" s="15"/>
+    <row r="751" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B751" s="14"/>
       <c r="G751" s="4"/>
       <c r="H751" s="4"/>
     </row>
-    <row r="752" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B752" s="15"/>
+    <row r="752" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B752" s="14"/>
       <c r="G752" s="4"/>
       <c r="H752" s="4"/>
     </row>
-    <row r="753" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B753" s="15"/>
+    <row r="753" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B753" s="14"/>
       <c r="G753" s="4"/>
       <c r="H753" s="4"/>
     </row>
-    <row r="754" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B754" s="15"/>
+    <row r="754" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B754" s="14"/>
       <c r="G754" s="4"/>
       <c r="H754" s="4"/>
     </row>
-    <row r="755" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B755" s="15"/>
+    <row r="755" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B755" s="14"/>
       <c r="G755" s="4"/>
       <c r="H755" s="4"/>
     </row>
-    <row r="756" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B756" s="15"/>
+    <row r="756" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B756" s="14"/>
       <c r="G756" s="4"/>
       <c r="H756" s="4"/>
     </row>
-    <row r="757" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B757" s="15"/>
+    <row r="757" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B757" s="14"/>
       <c r="G757" s="4"/>
       <c r="H757" s="4"/>
     </row>
-    <row r="758" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B758" s="15"/>
+    <row r="758" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B758" s="14"/>
       <c r="G758" s="4"/>
       <c r="H758" s="4"/>
     </row>
-    <row r="759" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B759" s="15"/>
+    <row r="759" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B759" s="14"/>
       <c r="G759" s="4"/>
       <c r="H759" s="4"/>
     </row>
-    <row r="760" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B760" s="15"/>
+    <row r="760" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B760" s="14"/>
       <c r="G760" s="4"/>
       <c r="H760" s="4"/>
     </row>
-    <row r="761" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B761" s="15"/>
+    <row r="761" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B761" s="14"/>
       <c r="G761" s="4"/>
       <c r="H761" s="4"/>
     </row>
-    <row r="762" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B762" s="15"/>
+    <row r="762" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B762" s="14"/>
       <c r="G762" s="4"/>
       <c r="H762" s="4"/>
     </row>
-    <row r="763" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B763" s="15"/>
+    <row r="763" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B763" s="14"/>
       <c r="G763" s="4"/>
       <c r="H763" s="4"/>
     </row>
-    <row r="764" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B764" s="15"/>
+    <row r="764" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B764" s="14"/>
       <c r="G764" s="4"/>
       <c r="H764" s="4"/>
     </row>
-    <row r="765" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B765" s="15"/>
+    <row r="765" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B765" s="14"/>
       <c r="G765" s="4"/>
       <c r="H765" s="4"/>
     </row>
-    <row r="766" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B766" s="15"/>
+    <row r="766" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B766" s="14"/>
       <c r="G766" s="4"/>
       <c r="H766" s="4"/>
     </row>
-    <row r="767" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B767" s="15"/>
+    <row r="767" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B767" s="14"/>
       <c r="G767" s="4"/>
       <c r="H767" s="4"/>
     </row>
-    <row r="768" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B768" s="15"/>
+    <row r="768" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B768" s="14"/>
       <c r="G768" s="4"/>
       <c r="H768" s="4"/>
     </row>
-    <row r="769" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B769" s="15"/>
+    <row r="769" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B769" s="14"/>
       <c r="G769" s="4"/>
       <c r="H769" s="4"/>
     </row>
-    <row r="770" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B770" s="15"/>
+    <row r="770" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B770" s="14"/>
       <c r="G770" s="4"/>
       <c r="H770" s="4"/>
     </row>
-    <row r="771" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B771" s="15"/>
+    <row r="771" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B771" s="14"/>
       <c r="G771" s="4"/>
       <c r="H771" s="4"/>
     </row>
-    <row r="772" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B772" s="15"/>
+    <row r="772" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B772" s="14"/>
       <c r="G772" s="4"/>
       <c r="H772" s="4"/>
     </row>
-    <row r="773" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B773" s="15"/>
+    <row r="773" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B773" s="14"/>
       <c r="G773" s="4"/>
       <c r="H773" s="4"/>
     </row>
-    <row r="774" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B774" s="15"/>
+    <row r="774" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B774" s="14"/>
       <c r="G774" s="4"/>
       <c r="H774" s="4"/>
     </row>
-    <row r="775" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B775" s="15"/>
+    <row r="775" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B775" s="14"/>
       <c r="G775" s="4"/>
       <c r="H775" s="4"/>
     </row>
-    <row r="776" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B776" s="15"/>
+    <row r="776" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B776" s="14"/>
       <c r="G776" s="4"/>
       <c r="H776" s="4"/>
     </row>
-    <row r="777" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B777" s="15"/>
+    <row r="777" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B777" s="14"/>
       <c r="G777" s="4"/>
       <c r="H777" s="4"/>
     </row>
-    <row r="778" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B778" s="15"/>
+    <row r="778" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B778" s="14"/>
       <c r="G778" s="4"/>
       <c r="H778" s="4"/>
     </row>
-    <row r="779" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B779" s="15"/>
+    <row r="779" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B779" s="14"/>
       <c r="G779" s="4"/>
       <c r="H779" s="4"/>
     </row>
-    <row r="780" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B780" s="15"/>
+    <row r="780" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B780" s="14"/>
       <c r="G780" s="4"/>
       <c r="H780" s="4"/>
     </row>
-    <row r="781" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B781" s="15"/>
+    <row r="781" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B781" s="14"/>
       <c r="G781" s="4"/>
       <c r="H781" s="4"/>
     </row>
-    <row r="782" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B782" s="15"/>
+    <row r="782" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B782" s="14"/>
       <c r="G782" s="4"/>
       <c r="H782" s="4"/>
     </row>
-    <row r="783" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B783" s="15"/>
+    <row r="783" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B783" s="14"/>
       <c r="G783" s="4"/>
       <c r="H783" s="4"/>
     </row>
-    <row r="784" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B784" s="15"/>
+    <row r="784" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B784" s="14"/>
       <c r="G784" s="4"/>
       <c r="H784" s="4"/>
     </row>
-    <row r="785" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B785" s="15"/>
+    <row r="785" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B785" s="14"/>
       <c r="G785" s="4"/>
       <c r="H785" s="4"/>
     </row>
-    <row r="786" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B786" s="15"/>
+    <row r="786" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B786" s="14"/>
       <c r="G786" s="4"/>
       <c r="H786" s="4"/>
     </row>
-    <row r="787" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B787" s="15"/>
+    <row r="787" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B787" s="14"/>
       <c r="G787" s="4"/>
       <c r="H787" s="4"/>
     </row>
-    <row r="788" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B788" s="15"/>
+    <row r="788" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B788" s="14"/>
       <c r="G788" s="4"/>
       <c r="H788" s="4"/>
     </row>
-    <row r="789" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B789" s="15"/>
+    <row r="789" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B789" s="14"/>
       <c r="G789" s="4"/>
       <c r="H789" s="4"/>
     </row>
-    <row r="790" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B790" s="15"/>
+    <row r="790" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B790" s="14"/>
       <c r="G790" s="4"/>
       <c r="H790" s="4"/>
     </row>
-    <row r="791" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B791" s="15"/>
+    <row r="791" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B791" s="14"/>
       <c r="G791" s="4"/>
       <c r="H791" s="4"/>
     </row>
-    <row r="792" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B792" s="15"/>
+    <row r="792" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B792" s="14"/>
       <c r="G792" s="4"/>
       <c r="H792" s="4"/>
     </row>
-    <row r="793" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B793" s="15"/>
+    <row r="793" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B793" s="14"/>
       <c r="G793" s="4"/>
       <c r="H793" s="4"/>
     </row>
-    <row r="794" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B794" s="15"/>
+    <row r="794" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B794" s="14"/>
       <c r="G794" s="4"/>
       <c r="H794" s="4"/>
     </row>
-    <row r="795" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B795" s="15"/>
+    <row r="795" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B795" s="14"/>
       <c r="G795" s="4"/>
       <c r="H795" s="4"/>
     </row>
-    <row r="796" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B796" s="15"/>
+    <row r="796" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B796" s="14"/>
       <c r="G796" s="4"/>
       <c r="H796" s="4"/>
     </row>
-    <row r="797" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B797" s="15"/>
+    <row r="797" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B797" s="14"/>
       <c r="G797" s="4"/>
       <c r="H797" s="4"/>
     </row>
-    <row r="798" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B798" s="15"/>
+    <row r="798" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B798" s="14"/>
       <c r="G798" s="4"/>
       <c r="H798" s="4"/>
     </row>
-    <row r="799" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B799" s="15"/>
+    <row r="799" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B799" s="14"/>
       <c r="G799" s="4"/>
       <c r="H799" s="4"/>
     </row>
-    <row r="800" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B800" s="15"/>
+    <row r="800" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B800" s="14"/>
       <c r="G800" s="4"/>
       <c r="H800" s="4"/>
     </row>
-    <row r="801" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B801" s="15"/>
+    <row r="801" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B801" s="14"/>
       <c r="G801" s="4"/>
       <c r="H801" s="4"/>
     </row>
-    <row r="802" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B802" s="15"/>
+    <row r="802" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B802" s="14"/>
       <c r="G802" s="4"/>
       <c r="H802" s="4"/>
     </row>
-    <row r="803" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B803" s="15"/>
+    <row r="803" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B803" s="14"/>
       <c r="G803" s="4"/>
       <c r="H803" s="4"/>
     </row>
-    <row r="804" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B804" s="15"/>
+    <row r="804" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B804" s="14"/>
       <c r="G804" s="4"/>
       <c r="H804" s="4"/>
     </row>
-    <row r="805" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B805" s="15"/>
+    <row r="805" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B805" s="14"/>
       <c r="G805" s="4"/>
       <c r="H805" s="4"/>
     </row>
-    <row r="806" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B806" s="15"/>
+    <row r="806" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B806" s="14"/>
       <c r="G806" s="4"/>
       <c r="H806" s="4"/>
     </row>
-    <row r="807" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B807" s="15"/>
+    <row r="807" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B807" s="14"/>
       <c r="G807" s="4"/>
       <c r="H807" s="4"/>
     </row>
-    <row r="808" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B808" s="15"/>
+    <row r="808" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B808" s="14"/>
       <c r="G808" s="4"/>
       <c r="H808" s="4"/>
     </row>
-    <row r="809" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B809" s="15"/>
+    <row r="809" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B809" s="14"/>
       <c r="G809" s="4"/>
       <c r="H809" s="4"/>
     </row>
-    <row r="810" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B810" s="15"/>
+    <row r="810" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B810" s="14"/>
       <c r="G810" s="4"/>
       <c r="H810" s="4"/>
     </row>
-    <row r="811" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B811" s="15"/>
+    <row r="811" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B811" s="14"/>
       <c r="G811" s="4"/>
       <c r="H811" s="4"/>
     </row>
-    <row r="812" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B812" s="15"/>
+    <row r="812" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B812" s="14"/>
       <c r="G812" s="4"/>
       <c r="H812" s="4"/>
     </row>
-    <row r="813" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B813" s="15"/>
+    <row r="813" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B813" s="14"/>
       <c r="G813" s="4"/>
       <c r="H813" s="4"/>
     </row>
-    <row r="814" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B814" s="15"/>
+    <row r="814" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B814" s="14"/>
       <c r="G814" s="4"/>
       <c r="H814" s="4"/>
     </row>
-    <row r="815" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B815" s="15"/>
+    <row r="815" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B815" s="14"/>
       <c r="G815" s="4"/>
       <c r="H815" s="4"/>
     </row>
-    <row r="816" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B816" s="15"/>
+    <row r="816" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B816" s="14"/>
       <c r="G816" s="4"/>
       <c r="H816" s="4"/>
     </row>
-    <row r="817" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B817" s="15"/>
+    <row r="817" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B817" s="14"/>
       <c r="G817" s="4"/>
       <c r="H817" s="4"/>
     </row>
-    <row r="818" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B818" s="15"/>
+    <row r="818" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B818" s="14"/>
       <c r="G818" s="4"/>
       <c r="H818" s="4"/>
     </row>
-    <row r="819" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B819" s="15"/>
+    <row r="819" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B819" s="14"/>
       <c r="G819" s="4"/>
       <c r="H819" s="4"/>
     </row>
-    <row r="820" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B820" s="15"/>
+    <row r="820" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B820" s="14"/>
       <c r="G820" s="4"/>
       <c r="H820" s="4"/>
     </row>
-    <row r="821" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B821" s="15"/>
+    <row r="821" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B821" s="14"/>
       <c r="G821" s="4"/>
       <c r="H821" s="4"/>
     </row>
-    <row r="822" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B822" s="15"/>
+    <row r="822" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B822" s="14"/>
       <c r="G822" s="4"/>
       <c r="H822" s="4"/>
     </row>
-    <row r="823" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B823" s="15"/>
+    <row r="823" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B823" s="14"/>
       <c r="G823" s="4"/>
       <c r="H823" s="4"/>
     </row>
-    <row r="824" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B824" s="15"/>
+    <row r="824" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B824" s="14"/>
       <c r="G824" s="4"/>
       <c r="H824" s="4"/>
     </row>
-    <row r="825" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B825" s="15"/>
+    <row r="825" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B825" s="14"/>
       <c r="G825" s="4"/>
       <c r="H825" s="4"/>
     </row>
-    <row r="826" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B826" s="15"/>
+    <row r="826" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B826" s="14"/>
       <c r="G826" s="4"/>
       <c r="H826" s="4"/>
     </row>
-    <row r="827" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B827" s="15"/>
+    <row r="827" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B827" s="14"/>
       <c r="G827" s="4"/>
       <c r="H827" s="4"/>
     </row>
-    <row r="828" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B828" s="15"/>
+    <row r="828" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B828" s="14"/>
       <c r="G828" s="4"/>
       <c r="H828" s="4"/>
     </row>
-    <row r="829" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B829" s="15"/>
+    <row r="829" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B829" s="14"/>
       <c r="G829" s="4"/>
       <c r="H829" s="4"/>
     </row>
-    <row r="830" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B830" s="15"/>
+    <row r="830" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B830" s="14"/>
       <c r="G830" s="4"/>
       <c r="H830" s="4"/>
     </row>
-    <row r="831" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B831" s="15"/>
+    <row r="831" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B831" s="14"/>
       <c r="G831" s="4"/>
       <c r="H831" s="4"/>
     </row>
-    <row r="832" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B832" s="15"/>
+    <row r="832" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B832" s="14"/>
       <c r="G832" s="4"/>
       <c r="H832" s="4"/>
     </row>
-    <row r="833" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B833" s="15"/>
+    <row r="833" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B833" s="14"/>
       <c r="G833" s="4"/>
       <c r="H833" s="4"/>
     </row>
-    <row r="834" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B834" s="15"/>
+    <row r="834" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B834" s="14"/>
       <c r="G834" s="4"/>
       <c r="H834" s="4"/>
     </row>
-    <row r="835" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B835" s="15"/>
+    <row r="835" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B835" s="14"/>
       <c r="G835" s="4"/>
       <c r="H835" s="4"/>
     </row>
-    <row r="836" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B836" s="15"/>
+    <row r="836" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B836" s="14"/>
       <c r="G836" s="4"/>
       <c r="H836" s="4"/>
     </row>
-    <row r="837" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B837" s="15"/>
+    <row r="837" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B837" s="14"/>
       <c r="G837" s="4"/>
       <c r="H837" s="4"/>
     </row>
-    <row r="838" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B838" s="15"/>
+    <row r="838" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B838" s="14"/>
       <c r="G838" s="4"/>
       <c r="H838" s="4"/>
     </row>
-    <row r="839" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B839" s="15"/>
+    <row r="839" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B839" s="14"/>
       <c r="G839" s="4"/>
       <c r="H839" s="4"/>
     </row>
-    <row r="840" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B840" s="15"/>
+    <row r="840" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B840" s="14"/>
       <c r="G840" s="4"/>
       <c r="H840" s="4"/>
     </row>
-    <row r="841" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B841" s="15"/>
+    <row r="841" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B841" s="14"/>
       <c r="G841" s="4"/>
       <c r="H841" s="4"/>
     </row>
-    <row r="842" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B842" s="15"/>
+    <row r="842" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B842" s="14"/>
       <c r="G842" s="4"/>
       <c r="H842" s="4"/>
     </row>
-    <row r="843" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B843" s="15"/>
+    <row r="843" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B843" s="14"/>
       <c r="G843" s="4"/>
       <c r="H843" s="4"/>
     </row>
-    <row r="844" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B844" s="15"/>
+    <row r="844" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B844" s="14"/>
       <c r="G844" s="4"/>
       <c r="H844" s="4"/>
     </row>
-    <row r="845" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B845" s="15"/>
+    <row r="845" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B845" s="14"/>
       <c r="G845" s="4"/>
       <c r="H845" s="4"/>
     </row>
-    <row r="846" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B846" s="15"/>
+    <row r="846" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B846" s="14"/>
       <c r="G846" s="4"/>
       <c r="H846" s="4"/>
     </row>
-    <row r="847" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B847" s="15"/>
+    <row r="847" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B847" s="14"/>
       <c r="G847" s="4"/>
       <c r="H847" s="4"/>
     </row>
-    <row r="848" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B848" s="15"/>
+    <row r="848" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B848" s="14"/>
       <c r="G848" s="4"/>
       <c r="H848" s="4"/>
     </row>
-    <row r="849" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B849" s="15"/>
+    <row r="849" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B849" s="14"/>
       <c r="G849" s="4"/>
       <c r="H849" s="4"/>
     </row>
-    <row r="850" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B850" s="15"/>
+    <row r="850" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B850" s="14"/>
       <c r="G850" s="4"/>
       <c r="H850" s="4"/>
     </row>
-    <row r="851" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B851" s="15"/>
+    <row r="851" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B851" s="14"/>
       <c r="G851" s="4"/>
       <c r="H851" s="4"/>
     </row>
-    <row r="852" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B852" s="15"/>
+    <row r="852" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B852" s="14"/>
       <c r="G852" s="4"/>
       <c r="H852" s="4"/>
     </row>
-    <row r="853" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B853" s="15"/>
+    <row r="853" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B853" s="14"/>
       <c r="G853" s="4"/>
       <c r="H853" s="4"/>
     </row>
-    <row r="854" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B854" s="15"/>
+    <row r="854" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B854" s="14"/>
       <c r="G854" s="4"/>
       <c r="H854" s="4"/>
     </row>
-    <row r="855" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B855" s="15"/>
+    <row r="855" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B855" s="14"/>
       <c r="G855" s="4"/>
       <c r="H855" s="4"/>
     </row>
-    <row r="856" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B856" s="15"/>
+    <row r="856" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B856" s="14"/>
       <c r="G856" s="4"/>
       <c r="H856" s="4"/>
     </row>
-    <row r="857" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B857" s="15"/>
+    <row r="857" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B857" s="14"/>
       <c r="G857" s="4"/>
       <c r="H857" s="4"/>
     </row>
-    <row r="858" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B858" s="15"/>
+    <row r="858" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B858" s="14"/>
       <c r="G858" s="4"/>
       <c r="H858" s="4"/>
     </row>
-    <row r="859" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B859" s="15"/>
+    <row r="859" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B859" s="14"/>
       <c r="G859" s="4"/>
       <c r="H859" s="4"/>
     </row>
-    <row r="860" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B860" s="15"/>
+    <row r="860" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B860" s="14"/>
       <c r="G860" s="4"/>
       <c r="H860" s="4"/>
     </row>
-    <row r="861" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B861" s="15"/>
+    <row r="861" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B861" s="14"/>
       <c r="G861" s="4"/>
       <c r="H861" s="4"/>
     </row>
-    <row r="862" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B862" s="15"/>
+    <row r="862" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B862" s="14"/>
       <c r="G862" s="4"/>
       <c r="H862" s="4"/>
     </row>
-    <row r="863" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B863" s="15"/>
+    <row r="863" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B863" s="14"/>
       <c r="G863" s="4"/>
       <c r="H863" s="4"/>
     </row>
-    <row r="864" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B864" s="15"/>
+    <row r="864" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B864" s="14"/>
       <c r="G864" s="4"/>
       <c r="H864" s="4"/>
     </row>
-    <row r="865" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B865" s="15"/>
+    <row r="865" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B865" s="14"/>
       <c r="G865" s="4"/>
       <c r="H865" s="4"/>
     </row>
-    <row r="866" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B866" s="15"/>
+    <row r="866" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B866" s="14"/>
       <c r="G866" s="4"/>
       <c r="H866" s="4"/>
     </row>
-    <row r="867" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B867" s="15"/>
+    <row r="867" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B867" s="14"/>
       <c r="G867" s="4"/>
       <c r="H867" s="4"/>
     </row>
-    <row r="868" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B868" s="15"/>
+    <row r="868" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B868" s="14"/>
       <c r="G868" s="4"/>
       <c r="H868" s="4"/>
     </row>
-    <row r="869" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B869" s="15"/>
+    <row r="869" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B869" s="14"/>
       <c r="G869" s="4"/>
       <c r="H869" s="4"/>
     </row>
-    <row r="870" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B870" s="15"/>
+    <row r="870" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B870" s="14"/>
       <c r="G870" s="4"/>
       <c r="H870" s="4"/>
     </row>
-    <row r="871" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B871" s="15"/>
+    <row r="871" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B871" s="14"/>
       <c r="G871" s="4"/>
       <c r="H871" s="4"/>
     </row>
-    <row r="872" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B872" s="15"/>
+    <row r="872" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B872" s="14"/>
       <c r="G872" s="4"/>
       <c r="H872" s="4"/>
     </row>
-    <row r="873" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B873" s="15"/>
+    <row r="873" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B873" s="14"/>
       <c r="G873" s="4"/>
       <c r="H873" s="4"/>
     </row>
-    <row r="874" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B874" s="15"/>
+    <row r="874" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B874" s="14"/>
       <c r="G874" s="4"/>
       <c r="H874" s="4"/>
     </row>
-    <row r="875" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B875" s="15"/>
+    <row r="875" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B875" s="14"/>
       <c r="G875" s="4"/>
       <c r="H875" s="4"/>
     </row>
-    <row r="876" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B876" s="15"/>
+    <row r="876" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B876" s="14"/>
       <c r="G876" s="4"/>
       <c r="H876" s="4"/>
     </row>
-    <row r="877" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B877" s="15"/>
+    <row r="877" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B877" s="14"/>
       <c r="G877" s="4"/>
       <c r="H877" s="4"/>
     </row>
-    <row r="878" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B878" s="15"/>
+    <row r="878" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B878" s="14"/>
       <c r="G878" s="4"/>
       <c r="H878" s="4"/>
     </row>
-    <row r="879" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B879" s="15"/>
+    <row r="879" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B879" s="14"/>
       <c r="G879" s="4"/>
       <c r="H879" s="4"/>
     </row>
-    <row r="880" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B880" s="15"/>
+    <row r="880" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B880" s="14"/>
       <c r="G880" s="4"/>
       <c r="H880" s="4"/>
     </row>
-    <row r="881" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B881" s="15"/>
+    <row r="881" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B881" s="14"/>
       <c r="G881" s="4"/>
       <c r="H881" s="4"/>
     </row>
-    <row r="882" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B882" s="15"/>
+    <row r="882" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B882" s="14"/>
       <c r="G882" s="4"/>
       <c r="H882" s="4"/>
     </row>
-    <row r="883" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B883" s="15"/>
+    <row r="883" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B883" s="14"/>
       <c r="G883" s="4"/>
       <c r="H883" s="4"/>
     </row>
-    <row r="884" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B884" s="15"/>
+    <row r="884" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B884" s="14"/>
       <c r="G884" s="4"/>
       <c r="H884" s="4"/>
     </row>
-    <row r="885" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B885" s="15"/>
+    <row r="885" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B885" s="14"/>
       <c r="G885" s="4"/>
       <c r="H885" s="4"/>
     </row>
-    <row r="886" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B886" s="15"/>
+    <row r="886" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B886" s="14"/>
       <c r="G886" s="4"/>
       <c r="H886" s="4"/>
     </row>
-    <row r="887" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B887" s="15"/>
+    <row r="887" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B887" s="14"/>
       <c r="G887" s="4"/>
       <c r="H887" s="4"/>
     </row>
-    <row r="888" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B888" s="15"/>
+    <row r="888" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B888" s="14"/>
       <c r="G888" s="4"/>
       <c r="H888" s="4"/>
     </row>
-    <row r="889" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B889" s="15"/>
+    <row r="889" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B889" s="14"/>
       <c r="G889" s="4"/>
       <c r="H889" s="4"/>
     </row>
-    <row r="890" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B890" s="15"/>
+    <row r="890" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B890" s="14"/>
       <c r="G890" s="4"/>
       <c r="H890" s="4"/>
     </row>
-    <row r="891" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B891" s="15"/>
+    <row r="891" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B891" s="14"/>
       <c r="G891" s="4"/>
       <c r="H891" s="4"/>
     </row>
-    <row r="892" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B892" s="15"/>
+    <row r="892" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B892" s="14"/>
       <c r="G892" s="4"/>
       <c r="H892" s="4"/>
     </row>
-    <row r="893" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B893" s="15"/>
+    <row r="893" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B893" s="14"/>
       <c r="G893" s="4"/>
       <c r="H893" s="4"/>
     </row>
-    <row r="894" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B894" s="15"/>
+    <row r="894" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B894" s="14"/>
       <c r="G894" s="4"/>
       <c r="H894" s="4"/>
     </row>
-    <row r="895" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B895" s="15"/>
+    <row r="895" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B895" s="14"/>
       <c r="G895" s="4"/>
       <c r="H895" s="4"/>
     </row>
-    <row r="896" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B896" s="15"/>
+    <row r="896" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B896" s="14"/>
       <c r="G896" s="4"/>
       <c r="H896" s="4"/>
     </row>
-    <row r="897" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B897" s="15"/>
+    <row r="897" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B897" s="14"/>
       <c r="G897" s="4"/>
       <c r="H897" s="4"/>
     </row>
-    <row r="898" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B898" s="15"/>
+    <row r="898" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B898" s="14"/>
       <c r="G898" s="4"/>
       <c r="H898" s="4"/>
     </row>
-    <row r="899" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B899" s="15"/>
+    <row r="899" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B899" s="14"/>
       <c r="G899" s="4"/>
       <c r="H899" s="4"/>
     </row>
-    <row r="900" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B900" s="15"/>
+    <row r="900" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B900" s="14"/>
       <c r="G900" s="4"/>
       <c r="H900" s="4"/>
     </row>
-    <row r="901" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B901" s="15"/>
+    <row r="901" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B901" s="14"/>
       <c r="G901" s="4"/>
       <c r="H901" s="4"/>
     </row>
-    <row r="902" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B902" s="15"/>
+    <row r="902" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B902" s="14"/>
       <c r="G902" s="4"/>
       <c r="H902" s="4"/>
     </row>
-    <row r="903" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B903" s="15"/>
+    <row r="903" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B903" s="14"/>
       <c r="G903" s="4"/>
       <c r="H903" s="4"/>
     </row>
-    <row r="904" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B904" s="15"/>
+    <row r="904" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B904" s="14"/>
       <c r="G904" s="4"/>
       <c r="H904" s="4"/>
     </row>
-    <row r="905" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B905" s="15"/>
+    <row r="905" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B905" s="14"/>
       <c r="G905" s="4"/>
       <c r="H905" s="4"/>
     </row>
-    <row r="906" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B906" s="15"/>
+    <row r="906" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B906" s="14"/>
       <c r="G906" s="4"/>
       <c r="H906" s="4"/>
     </row>
-    <row r="907" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B907" s="15"/>
+    <row r="907" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B907" s="14"/>
       <c r="G907" s="4"/>
       <c r="H907" s="4"/>
     </row>
-    <row r="908" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B908" s="15"/>
+    <row r="908" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B908" s="14"/>
       <c r="G908" s="4"/>
       <c r="H908" s="4"/>
     </row>
-    <row r="909" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B909" s="15"/>
+    <row r="909" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B909" s="14"/>
       <c r="G909" s="4"/>
       <c r="H909" s="4"/>
     </row>
-    <row r="910" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B910" s="15"/>
+    <row r="910" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B910" s="14"/>
       <c r="G910" s="4"/>
       <c r="H910" s="4"/>
     </row>
-    <row r="911" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B911" s="15"/>
+    <row r="911" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B911" s="14"/>
       <c r="G911" s="4"/>
       <c r="H911" s="4"/>
     </row>
-    <row r="912" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B912" s="15"/>
+    <row r="912" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B912" s="14"/>
       <c r="G912" s="4"/>
       <c r="H912" s="4"/>
     </row>
-    <row r="913" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B913" s="15"/>
+    <row r="913" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B913" s="14"/>
       <c r="G913" s="4"/>
       <c r="H913" s="4"/>
     </row>
-    <row r="914" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B914" s="15"/>
+    <row r="914" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B914" s="14"/>
       <c r="G914" s="4"/>
       <c r="H914" s="4"/>
     </row>
-    <row r="915" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B915" s="15"/>
+    <row r="915" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B915" s="14"/>
       <c r="G915" s="4"/>
       <c r="H915" s="4"/>
     </row>
-    <row r="916" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B916" s="15"/>
+    <row r="916" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B916" s="14"/>
       <c r="G916" s="4"/>
       <c r="H916" s="4"/>
     </row>
-    <row r="917" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B917" s="15"/>
+    <row r="917" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B917" s="14"/>
       <c r="G917" s="4"/>
       <c r="H917" s="4"/>
     </row>
-    <row r="918" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B918" s="15"/>
+    <row r="918" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B918" s="14"/>
       <c r="G918" s="4"/>
       <c r="H918" s="4"/>
     </row>
-    <row r="919" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B919" s="15"/>
+    <row r="919" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B919" s="14"/>
       <c r="G919" s="4"/>
       <c r="H919" s="4"/>
     </row>
-    <row r="920" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B920" s="15"/>
+    <row r="920" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B920" s="14"/>
       <c r="G920" s="4"/>
       <c r="H920" s="4"/>
     </row>
-    <row r="921" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B921" s="15"/>
+    <row r="921" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B921" s="14"/>
       <c r="G921" s="4"/>
       <c r="H921" s="4"/>
     </row>
-    <row r="922" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B922" s="15"/>
+    <row r="922" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B922" s="14"/>
       <c r="G922" s="4"/>
       <c r="H922" s="4"/>
     </row>
-    <row r="923" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B923" s="15"/>
+    <row r="923" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B923" s="14"/>
       <c r="G923" s="4"/>
       <c r="H923" s="4"/>
     </row>
-    <row r="924" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B924" s="15"/>
+    <row r="924" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B924" s="14"/>
       <c r="G924" s="4"/>
       <c r="H924" s="4"/>
     </row>
-    <row r="925" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B925" s="15"/>
+    <row r="925" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B925" s="14"/>
       <c r="G925" s="4"/>
       <c r="H925" s="4"/>
     </row>
-    <row r="926" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B926" s="15"/>
+    <row r="926" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B926" s="14"/>
       <c r="G926" s="4"/>
       <c r="H926" s="4"/>
     </row>
-    <row r="927" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B927" s="15"/>
+    <row r="927" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B927" s="14"/>
       <c r="G927" s="4"/>
       <c r="H927" s="4"/>
     </row>
-    <row r="928" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B928" s="15"/>
+    <row r="928" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B928" s="14"/>
       <c r="G928" s="4"/>
       <c r="H928" s="4"/>
     </row>
-    <row r="929" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B929" s="15"/>
+    <row r="929" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B929" s="14"/>
       <c r="G929" s="4"/>
       <c r="H929" s="4"/>
     </row>
-    <row r="930" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B930" s="15"/>
+    <row r="930" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B930" s="14"/>
       <c r="G930" s="4"/>
       <c r="H930" s="4"/>
     </row>
-    <row r="931" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B931" s="15"/>
+    <row r="931" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B931" s="14"/>
       <c r="G931" s="4"/>
       <c r="H931" s="4"/>
     </row>
-    <row r="932" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B932" s="15"/>
+    <row r="932" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B932" s="14"/>
       <c r="G932" s="4"/>
       <c r="H932" s="4"/>
     </row>
-    <row r="933" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B933" s="15"/>
+    <row r="933" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B933" s="14"/>
       <c r="G933" s="4"/>
       <c r="H933" s="4"/>
     </row>
-    <row r="934" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B934" s="15"/>
+    <row r="934" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B934" s="14"/>
       <c r="G934" s="4"/>
       <c r="H934" s="4"/>
     </row>
-    <row r="935" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B935" s="15"/>
+    <row r="935" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B935" s="14"/>
       <c r="G935" s="4"/>
       <c r="H935" s="4"/>
     </row>
-    <row r="936" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B936" s="15"/>
+    <row r="936" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B936" s="14"/>
       <c r="G936" s="4"/>
       <c r="H936" s="4"/>
     </row>
-    <row r="937" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B937" s="15"/>
+    <row r="937" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B937" s="14"/>
       <c r="G937" s="4"/>
       <c r="H937" s="4"/>
     </row>
-    <row r="938" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B938" s="15"/>
+    <row r="938" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B938" s="14"/>
       <c r="G938" s="4"/>
       <c r="H938" s="4"/>
     </row>
-    <row r="939" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B939" s="15"/>
+    <row r="939" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B939" s="14"/>
       <c r="G939" s="4"/>
       <c r="H939" s="4"/>
     </row>
-    <row r="940" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B940" s="15"/>
+    <row r="940" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B940" s="14"/>
       <c r="G940" s="4"/>
       <c r="H940" s="4"/>
     </row>
-    <row r="941" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B941" s="15"/>
+    <row r="941" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B941" s="14"/>
       <c r="G941" s="4"/>
       <c r="H941" s="4"/>
     </row>
-    <row r="942" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B942" s="15"/>
+    <row r="942" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B942" s="14"/>
       <c r="G942" s="4"/>
       <c r="H942" s="4"/>
     </row>
-    <row r="943" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B943" s="15"/>
+    <row r="943" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B943" s="14"/>
       <c r="G943" s="4"/>
       <c r="H943" s="4"/>
     </row>
-    <row r="944" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B944" s="15"/>
+    <row r="944" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B944" s="14"/>
       <c r="G944" s="4"/>
       <c r="H944" s="4"/>
     </row>
-    <row r="945" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B945" s="15"/>
+    <row r="945" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B945" s="14"/>
       <c r="G945" s="4"/>
       <c r="H945" s="4"/>
     </row>
-    <row r="946" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B946" s="15"/>
+    <row r="946" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B946" s="14"/>
       <c r="G946" s="4"/>
       <c r="H946" s="4"/>
     </row>
-    <row r="947" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B947" s="15"/>
+    <row r="947" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B947" s="14"/>
       <c r="G947" s="4"/>
       <c r="H947" s="4"/>
     </row>
-    <row r="948" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B948" s="15"/>
+    <row r="948" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B948" s="14"/>
       <c r="G948" s="4"/>
       <c r="H948" s="4"/>
     </row>
-    <row r="949" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B949" s="15"/>
+    <row r="949" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B949" s="14"/>
       <c r="G949" s="4"/>
       <c r="H949" s="4"/>
     </row>
-    <row r="950" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B950" s="15"/>
+    <row r="950" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B950" s="14"/>
       <c r="G950" s="4"/>
       <c r="H950" s="4"/>
     </row>
-    <row r="951" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B951" s="15"/>
+    <row r="951" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B951" s="14"/>
       <c r="G951" s="4"/>
       <c r="H951" s="4"/>
     </row>
-    <row r="952" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B952" s="15"/>
+    <row r="952" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B952" s="14"/>
       <c r="G952" s="4"/>
       <c r="H952" s="4"/>
     </row>
-    <row r="953" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B953" s="15"/>
+    <row r="953" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B953" s="14"/>
       <c r="G953" s="4"/>
       <c r="H953" s="4"/>
     </row>
-    <row r="954" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B954" s="15"/>
+    <row r="954" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B954" s="14"/>
       <c r="G954" s="4"/>
       <c r="H954" s="4"/>
     </row>
-    <row r="955" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B955" s="15"/>
+    <row r="955" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B955" s="14"/>
       <c r="G955" s="4"/>
       <c r="H955" s="4"/>
     </row>
-    <row r="956" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B956" s="15"/>
+    <row r="956" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B956" s="14"/>
       <c r="G956" s="4"/>
       <c r="H956" s="4"/>
     </row>
-    <row r="957" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B957" s="15"/>
+    <row r="957" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B957" s="14"/>
       <c r="G957" s="4"/>
       <c r="H957" s="4"/>
     </row>
-    <row r="958" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B958" s="15"/>
+    <row r="958" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B958" s="14"/>
       <c r="G958" s="4"/>
       <c r="H958" s="4"/>
     </row>
-    <row r="959" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B959" s="15"/>
+    <row r="959" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B959" s="14"/>
       <c r="G959" s="4"/>
       <c r="H959" s="4"/>
     </row>
-    <row r="960" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B960" s="15"/>
+    <row r="960" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B960" s="14"/>
       <c r="G960" s="4"/>
       <c r="H960" s="4"/>
     </row>
-    <row r="961" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B961" s="15"/>
+    <row r="961" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B961" s="14"/>
       <c r="G961" s="4"/>
       <c r="H961" s="4"/>
     </row>
-    <row r="962" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B962" s="15"/>
+    <row r="962" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B962" s="14"/>
       <c r="G962" s="4"/>
       <c r="H962" s="4"/>
     </row>
-    <row r="963" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B963" s="15"/>
+    <row r="963" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B963" s="14"/>
       <c r="G963" s="4"/>
       <c r="H963" s="4"/>
     </row>
-    <row r="964" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B964" s="15"/>
+    <row r="964" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B964" s="14"/>
       <c r="G964" s="4"/>
       <c r="H964" s="4"/>
     </row>
-    <row r="965" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B965" s="15"/>
+    <row r="965" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B965" s="14"/>
       <c r="G965" s="4"/>
       <c r="H965" s="4"/>
     </row>
-    <row r="966" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B966" s="15"/>
+    <row r="966" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B966" s="14"/>
       <c r="G966" s="4"/>
       <c r="H966" s="4"/>
     </row>
-    <row r="967" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B967" s="15"/>
+    <row r="967" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B967" s="14"/>
       <c r="G967" s="4"/>
       <c r="H967" s="4"/>
     </row>
-    <row r="968" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B968" s="15"/>
+    <row r="968" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B968" s="14"/>
       <c r="G968" s="4"/>
       <c r="H968" s="4"/>
     </row>
-    <row r="969" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B969" s="15"/>
+    <row r="969" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B969" s="14"/>
       <c r="G969" s="4"/>
       <c r="H969" s="4"/>
     </row>
-    <row r="970" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B970" s="15"/>
+    <row r="970" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B970" s="14"/>
       <c r="G970" s="4"/>
       <c r="H970" s="4"/>
     </row>
-    <row r="971" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B971" s="15"/>
+    <row r="971" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B971" s="14"/>
       <c r="G971" s="4"/>
       <c r="H971" s="4"/>
     </row>
-    <row r="972" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B972" s="15"/>
+    <row r="972" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B972" s="14"/>
       <c r="G972" s="4"/>
       <c r="H972" s="4"/>
     </row>
-    <row r="973" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B973" s="15"/>
+    <row r="973" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B973" s="14"/>
       <c r="G973" s="4"/>
       <c r="H973" s="4"/>
     </row>
-    <row r="974" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B974" s="15"/>
+    <row r="974" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B974" s="14"/>
       <c r="G974" s="4"/>
       <c r="H974" s="4"/>
     </row>
-    <row r="975" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B975" s="15"/>
+    <row r="975" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B975" s="14"/>
       <c r="G975" s="4"/>
       <c r="H975" s="4"/>
     </row>
-    <row r="976" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B976" s="15"/>
+    <row r="976" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B976" s="14"/>
       <c r="G976" s="4"/>
       <c r="H976" s="4"/>
     </row>
-    <row r="977" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B977" s="15"/>
+    <row r="977" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B977" s="14"/>
       <c r="G977" s="4"/>
       <c r="H977" s="4"/>
     </row>
-    <row r="978" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B978" s="15"/>
+    <row r="978" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B978" s="14"/>
       <c r="G978" s="4"/>
       <c r="H978" s="4"/>
     </row>
-    <row r="979" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B979" s="15"/>
+    <row r="979" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B979" s="14"/>
       <c r="G979" s="4"/>
       <c r="H979" s="4"/>
     </row>
-    <row r="980" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B980" s="15"/>
+    <row r="980" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B980" s="14"/>
       <c r="G980" s="4"/>
       <c r="H980" s="4"/>
     </row>
-    <row r="981" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B981" s="15"/>
+    <row r="981" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B981" s="14"/>
       <c r="G981" s="4"/>
       <c r="H981" s="4"/>
     </row>
-    <row r="982" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B982" s="15"/>
+    <row r="982" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B982" s="14"/>
       <c r="G982" s="4"/>
       <c r="H982" s="4"/>
     </row>
-    <row r="983" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B983" s="15"/>
+    <row r="983" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B983" s="14"/>
       <c r="G983" s="4"/>
       <c r="H983" s="4"/>
     </row>
-    <row r="984" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B984" s="15"/>
+    <row r="984" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B984" s="14"/>
       <c r="G984" s="4"/>
       <c r="H984" s="4"/>
     </row>
-    <row r="985" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B985" s="15"/>
+    <row r="985" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B985" s="14"/>
       <c r="G985" s="4"/>
       <c r="H985" s="4"/>
     </row>
-    <row r="986" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B986" s="15"/>
+    <row r="986" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B986" s="14"/>
       <c r="G986" s="4"/>
       <c r="H986" s="4"/>
     </row>
-    <row r="987" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B987" s="15"/>
+    <row r="987" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B987" s="14"/>
       <c r="G987" s="4"/>
       <c r="H987" s="4"/>
     </row>
-    <row r="988" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B988" s="15"/>
+    <row r="988" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B988" s="14"/>
       <c r="G988" s="4"/>
       <c r="H988" s="4"/>
     </row>
-    <row r="989" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B989" s="15"/>
+    <row r="989" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B989" s="14"/>
       <c r="G989" s="4"/>
       <c r="H989" s="4"/>
     </row>
-    <row r="990" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B990" s="15"/>
+    <row r="990" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B990" s="14"/>
       <c r="G990" s="4"/>
       <c r="H990" s="4"/>
     </row>
-    <row r="991" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B991" s="15"/>
+    <row r="991" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B991" s="14"/>
       <c r="G991" s="4"/>
       <c r="H991" s="4"/>
     </row>
-    <row r="992" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B992" s="15"/>
+    <row r="992" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B992" s="14"/>
       <c r="G992" s="4"/>
       <c r="H992" s="4"/>
     </row>
-    <row r="993" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B993" s="15"/>
+    <row r="993" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B993" s="14"/>
       <c r="G993" s="4"/>
       <c r="H993" s="4"/>
     </row>
-    <row r="994" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B994" s="15"/>
+    <row r="994" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B994" s="14"/>
       <c r="G994" s="4"/>
       <c r="H994" s="4"/>
     </row>
-    <row r="995" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B995" s="15"/>
+    <row r="995" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B995" s="14"/>
       <c r="G995" s="4"/>
       <c r="H995" s="4"/>
     </row>
-    <row r="996" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B996" s="15"/>
+    <row r="996" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B996" s="14"/>
       <c r="G996" s="4"/>
       <c r="H996" s="4"/>
     </row>
-    <row r="997" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B997" s="15"/>
+    <row r="997" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B997" s="14"/>
       <c r="G997" s="4"/>
       <c r="H997" s="4"/>
     </row>
-    <row r="998" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B998" s="15"/>
+    <row r="998" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B998" s="14"/>
       <c r="G998" s="4"/>
       <c r="H998" s="4"/>
     </row>
-    <row r="999" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B999" s="15"/>
+    <row r="999" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B999" s="14"/>
       <c r="G999" s="4"/>
       <c r="H999" s="4"/>
     </row>
-    <row r="1000" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1000" s="15"/>
+    <row r="1000" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1000" s="14"/>
       <c r="G1000" s="4"/>
       <c r="H1000" s="4"/>
     </row>
-    <row r="1001" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1001" s="15"/>
+    <row r="1001" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1001" s="14"/>
       <c r="G1001" s="4"/>
       <c r="H1001" s="4"/>
     </row>
-    <row r="1002" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1002" s="15"/>
+    <row r="1002" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1002" s="14"/>
       <c r="G1002" s="4"/>
       <c r="H1002" s="4"/>
     </row>
-    <row r="1003" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1003" s="15"/>
+    <row r="1003" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1003" s="14"/>
       <c r="G1003" s="4"/>
       <c r="H1003" s="4"/>
     </row>
-    <row r="1004" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1004" s="15"/>
+    <row r="1004" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1004" s="14"/>
       <c r="G1004" s="4"/>
       <c r="H1004" s="4"/>
     </row>
-    <row r="1005" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1005" s="15"/>
+    <row r="1005" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1005" s="14"/>
       <c r="G1005" s="4"/>
       <c r="H1005" s="4"/>
     </row>
-    <row r="1006" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1006" s="15"/>
+    <row r="1006" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1006" s="14"/>
       <c r="G1006" s="4"/>
       <c r="H1006" s="4"/>
     </row>
